--- a/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AVGCharacter" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -613,327 +613,363 @@
     <t>hero_13</t>
   </si>
   <si>
+    <t>涂凌_惊讶_上脸_循环_01|涂凌_惊讶_上脸_开始_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01</t>
+  </si>
+  <si>
+    <t>涂凌_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>杜博士</t>
+  </si>
+  <si>
+    <t>char_duheng_mobile</t>
+  </si>
+  <si>
+    <t>jingwei</t>
+  </si>
+  <si>
+    <t>警卫</t>
+  </si>
+  <si>
+    <t>char_jingwei</t>
+  </si>
+  <si>
+    <t>kaiselin</t>
+  </si>
+  <si>
+    <t>凯瑟琳</t>
+  </si>
+  <si>
+    <t>char_kaiselin01</t>
+  </si>
+  <si>
+    <t>hero_11</t>
+  </si>
+  <si>
+    <t>凯瑟琳_开心_上脸_开始_01|凯瑟琳_开心_上脸_循环_01|凯瑟琳_媚眼_上脸_开始_01|凯瑟琳_享受_上脸_开始_01|凯瑟琳_享受_上脸_循环_01</t>
+  </si>
+  <si>
+    <t>凯瑟琳_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>niezong</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>char_niezong</t>
+  </si>
+  <si>
+    <t>hero_12</t>
+  </si>
+  <si>
+    <t>聂总_惊讶_上脸_开始_01|聂总_惊讶_上脸_循环_01|聂总_开心_上脸_开始_01|聂总_开心_上脸_循环_01|聂总_尴尬_上脸_开始_01|聂总_尴尬_上脸_循环_01|聂总_紧张_上脸_循环_01|聂总_紧张_上脸_开始_01|聂总_愤怒_上脸_开始_01|聂总_愤怒_上脸_循环_01</t>
+  </si>
+  <si>
+    <t>voice_didi_7</t>
+  </si>
+  <si>
+    <t>tushanao</t>
+  </si>
+  <si>
+    <t>土山奥</t>
+  </si>
+  <si>
+    <t>char_tushanao</t>
+  </si>
+  <si>
+    <t>hero_15</t>
+  </si>
+  <si>
+    <t>土山奥_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>woo</t>
+  </si>
+  <si>
+    <t>旁白</t>
+  </si>
+  <si>
+    <t>stranger</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>niefei</t>
+  </si>
+  <si>
+    <t>聂飞</t>
+  </si>
+  <si>
+    <t>聂总</t>
+  </si>
+  <si>
+    <t>聂总_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>yunqing</t>
+  </si>
+  <si>
+    <t>云倾</t>
+  </si>
+  <si>
+    <t>char_yunqing</t>
+  </si>
+  <si>
+    <t>云倾_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>tel2</t>
+  </si>
+  <si>
+    <t>char_tel</t>
+  </si>
+  <si>
+    <t>hero_17</t>
+  </si>
+  <si>
+    <t>zhouyi</t>
+  </si>
+  <si>
+    <t>char_zhouyi</t>
+  </si>
+  <si>
+    <t>hero_10</t>
+  </si>
+  <si>
+    <t>周易_晕_上脸_开始_01|周易_晕_上脸_开始_02|周易_思考_上脸_开始_01|周易_无奈_上脸_开始_02|周易_受挫_上脸_开始_01|周易_成功_上脸_开始_01|周易_晕_上脸_循环_01|周易_晕_上脸_循环_02|周易_思考_上脸_循环_01|周易_无奈_上脸_循环_02|周易_受挫_循环_开始_01|周易_成功_上脸_循环_01</t>
+  </si>
+  <si>
+    <t>yuanfangzheng</t>
+  </si>
+  <si>
+    <t>元方正</t>
+  </si>
+  <si>
+    <t>char_yuanfangzheng</t>
+  </si>
+  <si>
+    <t>hezhongshaonv</t>
+  </si>
+  <si>
+    <t>玛特罗什卡</t>
+  </si>
+  <si>
+    <t>char_hezhongshaonv</t>
+  </si>
+  <si>
+    <t>stranger1</t>
+  </si>
+  <si>
+    <t>huangquan</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>char_huangquan</t>
+  </si>
+  <si>
+    <t>hero_huangquan</t>
+  </si>
+  <si>
+    <t>黄权_开心_上脸_开始_01|黄权_开心_上脸_循环_01|黄权_忧伤_上脸_开始_01|黄权_忧伤_上脸_循环_01|黄权_思考_上脸_开始_01|黄权_思考_上脸_循环_01|黄权_尴尬_上脸_开始_01|黄权_尴尬_上脸_循环_01|黄权_击破_上脸_开始_01|黄权_击破_上脸_循环_01</t>
+  </si>
+  <si>
+    <t>黄权_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>qingjiegong</t>
+  </si>
+  <si>
+    <t>清洁工</t>
+  </si>
+  <si>
+    <t>char_lijiahu</t>
+  </si>
+  <si>
+    <t>李加虎_不屑_上脸_结束_01|李加虎_打气_上脸_结束_01|李加虎_愤怒_上脸_结束_01|李加虎_害怕_上脸_结束_01|李加虎_好奇_上脸_结束_01|李加虎_击破_上脸_结束_01|李加虎_紧张_上脸_结束_01|李加虎_开心_上脸_结束_01|李加虎_开心_上脸_结束_02|李加虎_思考_上脸_结束_01|李加虎_严肃_上脸_结束_01|李加虎_忧伤_上脸_结束_01|李加虎_着急_上脸_结束_01|李加虎_好奇_上脸_开始_01|李加虎_开心_上脸_开始_01|李加虎_开心_上脸_开始_02|李加虎_开心_上脸_循环_02|李加虎_击破_上脸_开始_01|李加虎_击破_上脸_循环_01|李加虎_得意_上脸_开始_01|李加虎_忧伤_上脸_开始_01|李加虎_忧伤_上脸_循环_01|李加虎_思考_上脸_循环_01|李加虎_惊讶_上脸_开始_01|李加虎_愤怒_上脸_开始_01|李加虎_愤怒_上脸_循环_01|李加虎_着急_上脸_开始_01|李加虎_着急_上脸_循环_01|李加虎_得意_上脸_结束_01</t>
+  </si>
+  <si>
+    <t>李加虎</t>
+  </si>
+  <si>
+    <t>lijiahu</t>
+  </si>
+  <si>
+    <t>hero_lijiahu</t>
+  </si>
+  <si>
+    <t>李加虎_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>chenbing</t>
+  </si>
+  <si>
+    <t>陈冰</t>
+  </si>
+  <si>
+    <t>char_chenbing</t>
+  </si>
+  <si>
+    <t>yuanan</t>
+  </si>
+  <si>
+    <t>余阿南</t>
+  </si>
+  <si>
+    <t>char_yuanan</t>
+  </si>
+  <si>
+    <t>huangquan2D</t>
+  </si>
+  <si>
+    <t>char_huangquan2D</t>
+  </si>
+  <si>
+    <t>lijiahu2D</t>
+  </si>
+  <si>
+    <t>char_lijiahu2D</t>
+  </si>
+  <si>
+    <t>gifTest</t>
+  </si>
+  <si>
+    <t>动图测试</t>
+  </si>
+  <si>
+    <t>char_testgif2D</t>
+  </si>
+  <si>
+    <t>qiyizhi</t>
+  </si>
+  <si>
+    <t>漆异之</t>
+  </si>
+  <si>
+    <t>laobanniang</t>
+  </si>
+  <si>
+    <t>老板娘</t>
+  </si>
+  <si>
+    <t>char_laobanniang</t>
+  </si>
+  <si>
+    <t>xiaoyu</t>
+  </si>
+  <si>
+    <t>小鱼</t>
+  </si>
+  <si>
+    <t>char_xiaoyu</t>
+  </si>
+  <si>
+    <t>laoshi</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>char_laoshi</t>
+  </si>
+  <si>
+    <t>weilandetian</t>
+  </si>
+  <si>
+    <t>蔚蓝的天</t>
+  </si>
+  <si>
+    <t>char_weilandetian</t>
+  </si>
+  <si>
+    <t>jixiangwu</t>
+  </si>
+  <si>
+    <t>STS AI</t>
+  </si>
+  <si>
+    <t>char_niezong_holo</t>
+  </si>
+  <si>
+    <t>shamo</t>
+  </si>
+  <si>
+    <t>鲨默</t>
+  </si>
+  <si>
+    <t>char_shamo</t>
+  </si>
+  <si>
+    <t>cangling</t>
+  </si>
+  <si>
+    <t>仓铃</t>
+  </si>
+  <si>
+    <t>char_cangling</t>
+  </si>
+  <si>
+    <t>nanren</t>
+  </si>
+  <si>
+    <t>男人</t>
+  </si>
+  <si>
+    <t>男人的声音</t>
+  </si>
+  <si>
+    <t>duheng</t>
+  </si>
+  <si>
+    <t>杜衡</t>
+  </si>
+  <si>
+    <t>char_duheng</t>
+  </si>
+  <si>
+    <t>杜衡_平静_上脸_开始_01|杜衡_思考_上脸_开始_01|杜衡_愤怒2_上脸_开始_01|杜衡_平静_循环_开始_01|杜衡_思考_上脸_循环_01|杜衡_愤怒2_上脸_循环_01</t>
+  </si>
+  <si>
+    <t>杜衡_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>duheng_stranger</t>
+  </si>
+  <si>
+    <t>shark</t>
+  </si>
+  <si>
+    <t>char_shark</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>char_squirrel</t>
+  </si>
+  <si>
+    <t>松鼠</t>
+  </si>
+  <si>
+    <t>shayushaonv</t>
+  </si>
+  <si>
+    <t>鲨鱼服少女</t>
+  </si>
+  <si>
     <t>涂凌_惊讶_上脸_循环_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01</t>
   </si>
   <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>杜博士</t>
-  </si>
-  <si>
-    <t>char_duheng_mobile</t>
-  </si>
-  <si>
-    <t>jingwei</t>
-  </si>
-  <si>
-    <t>警卫</t>
-  </si>
-  <si>
-    <t>char_jingwei</t>
-  </si>
-  <si>
-    <t>kaiselin</t>
-  </si>
-  <si>
-    <t>凯瑟琳</t>
-  </si>
-  <si>
-    <t>char_kaiselin01</t>
-  </si>
-  <si>
-    <t>hero_11</t>
-  </si>
-  <si>
-    <t>凯瑟琳_开心_上脸_开始_01|凯瑟琳_开心_上脸_循环_01|凯瑟琳_媚眼_上脸_开始_01|凯瑟琳_享受_上脸_开始_01|凯瑟琳_享受_上脸_循环_01</t>
-  </si>
-  <si>
-    <t>niezong</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>char_niezong</t>
-  </si>
-  <si>
-    <t>hero_12</t>
-  </si>
-  <si>
-    <t>聂总_惊讶_上脸_开始_01|聂总_惊讶_上脸_循环_01|聂总_开心_上脸_开始_01|聂总_开心_上脸_循环_01|聂总_尴尬_上脸_开始_01|聂总_尴尬_上脸_循环_01|聂总_紧张_上脸_循环_01|聂总_紧张_上脸_开始_01|聂总_愤怒_上脸_开始_01|聂总_愤怒_上脸_循环_01</t>
-  </si>
-  <si>
-    <t>voice_didi_7</t>
-  </si>
-  <si>
-    <t>tushanao</t>
-  </si>
-  <si>
-    <t>土山奥</t>
-  </si>
-  <si>
-    <t>char_tushanao</t>
-  </si>
-  <si>
-    <t>hero_15</t>
-  </si>
-  <si>
-    <t>woo</t>
-  </si>
-  <si>
-    <t>旁白</t>
-  </si>
-  <si>
-    <t>stranger</t>
-  </si>
-  <si>
-    <t>？？？</t>
-  </si>
-  <si>
-    <t>niefei</t>
-  </si>
-  <si>
-    <t>聂飞</t>
-  </si>
-  <si>
-    <t>聂总</t>
-  </si>
-  <si>
-    <t>yunqing</t>
-  </si>
-  <si>
-    <t>云倾</t>
-  </si>
-  <si>
-    <t>char_yunqing</t>
-  </si>
-  <si>
-    <t>tel2</t>
-  </si>
-  <si>
-    <t>char_tel</t>
-  </si>
-  <si>
-    <t>hero_17</t>
-  </si>
-  <si>
-    <t>zhouyi</t>
-  </si>
-  <si>
-    <t>char_zhouyi</t>
-  </si>
-  <si>
-    <t>周易_晕_上脸_开始_01|周易_晕_上脸_开始_02|周易_思考_上脸_开始_01|周易_无奈_上脸_开始_02|周易_受挫_上脸_开始_01|周易_成功_上脸_开始_01|周易_晕_上脸_循环_01|周易_晕_上脸_循环_02|周易_思考_上脸_循环_01|周易_无奈_上脸_循环_02|周易_受挫_循环_开始_01|周易_成功_上脸_循环_01</t>
-  </si>
-  <si>
-    <t>yuanfangzheng</t>
-  </si>
-  <si>
-    <t>元方正</t>
-  </si>
-  <si>
-    <t>char_yuanfangzheng</t>
-  </si>
-  <si>
-    <t>hezhongshaonv</t>
-  </si>
-  <si>
-    <t>玛特罗什卡</t>
-  </si>
-  <si>
-    <t>char_hezhongshaonv</t>
-  </si>
-  <si>
-    <t>stranger1</t>
-  </si>
-  <si>
-    <t>huangquan</t>
-  </si>
-  <si>
-    <t>黄权</t>
-  </si>
-  <si>
-    <t>char_huangquan</t>
-  </si>
-  <si>
-    <t>黄权_开心_上脸_开始_01|黄权_开心_上脸_循环_01|黄权_忧伤_上脸_开始_01|黄权_忧伤_上脸_循环_01|黄权_思考_上脸_开始_01|黄权_思考_上脸_循环_01|黄权_尴尬_上脸_开始_01|黄权_尴尬_上脸_循环_01|黄权_击破_上脸_开始_01|黄权_击破_上脸_循环_01</t>
-  </si>
-  <si>
-    <t>qingjiegong</t>
-  </si>
-  <si>
-    <t>清洁工</t>
-  </si>
-  <si>
-    <t>char_lijiahu</t>
-  </si>
-  <si>
-    <t>李加虎_不屑_上脸_结束_01|李加虎_打气_上脸_结束_01|李加虎_愤怒_上脸_结束_01|李加虎_害怕_上脸_结束_01|李加虎_好奇_上脸_结束_01|李加虎_击破_上脸_结束_01|李加虎_紧张_上脸_结束_01|李加虎_开心_上脸_结束_01|李加虎_开心_上脸_结束_02|李加虎_思考_上脸_结束_01|李加虎_严肃_上脸_结束_01|李加虎_忧伤_上脸_结束_01|李加虎_着急_上脸_结束_01|李加虎_好奇_上脸_开始_01|李加虎_开心_上脸_开始_01|李加虎_开心_上脸_开始_02|李加虎_开心_上脸_循环_02|李加虎_击破_上脸_开始_01|李加虎_击破_上脸_循环_01|李加虎_得意_上脸_开始_01|李加虎_忧伤_上脸_开始_01|李加虎_忧伤_上脸_循环_01|李加虎_思考_上脸_循环_01|李加虎_惊讶_上脸_开始_01|李加虎_愤怒_上脸_开始_01|李加虎_愤怒_上脸_循环_01|李加虎_着急_上脸_开始_01|李加虎_着急_上脸_循环_01|李加虎_得意_上脸_结束_01</t>
-  </si>
-  <si>
-    <t>李加虎</t>
-  </si>
-  <si>
-    <t>lijiahu</t>
-  </si>
-  <si>
-    <t>chenbing</t>
-  </si>
-  <si>
-    <t>陈冰</t>
-  </si>
-  <si>
-    <t>char_chenbing</t>
-  </si>
-  <si>
-    <t>yuanan</t>
-  </si>
-  <si>
-    <t>余阿南</t>
-  </si>
-  <si>
-    <t>char_yuanan</t>
-  </si>
-  <si>
-    <t>huangquan2D</t>
-  </si>
-  <si>
-    <t>char_huangquan2D</t>
-  </si>
-  <si>
-    <t>lijiahu2D</t>
-  </si>
-  <si>
-    <t>char_lijiahu2D</t>
-  </si>
-  <si>
-    <t>gifTest</t>
-  </si>
-  <si>
-    <t>动图测试</t>
-  </si>
-  <si>
-    <t>char_testgif2D</t>
-  </si>
-  <si>
-    <t>qiyizhi</t>
-  </si>
-  <si>
-    <t>漆异之</t>
-  </si>
-  <si>
-    <t>laobanniang</t>
-  </si>
-  <si>
-    <t>老板娘</t>
-  </si>
-  <si>
-    <t>char_laobanniang</t>
-  </si>
-  <si>
-    <t>xiaoyu</t>
-  </si>
-  <si>
-    <t>小鱼</t>
-  </si>
-  <si>
-    <t>char_xiaoyu</t>
-  </si>
-  <si>
-    <t>laoshi</t>
-  </si>
-  <si>
-    <t>老师</t>
-  </si>
-  <si>
-    <t>char_laoshi</t>
-  </si>
-  <si>
-    <t>weilandetian</t>
-  </si>
-  <si>
-    <t>蔚蓝的天</t>
-  </si>
-  <si>
-    <t>char_weilandetian</t>
-  </si>
-  <si>
-    <t>jixiangwu</t>
-  </si>
-  <si>
-    <t>STS AI</t>
-  </si>
-  <si>
-    <t>char_niezong_holo</t>
-  </si>
-  <si>
-    <t>shamo</t>
-  </si>
-  <si>
-    <t>鲨默</t>
-  </si>
-  <si>
-    <t>char_shamo</t>
-  </si>
-  <si>
-    <t>cangling</t>
-  </si>
-  <si>
-    <t>仓铃</t>
-  </si>
-  <si>
-    <t>char_cangling</t>
-  </si>
-  <si>
-    <t>nanren</t>
-  </si>
-  <si>
-    <t>男人</t>
-  </si>
-  <si>
-    <t>男人的声音</t>
-  </si>
-  <si>
-    <t>duheng</t>
-  </si>
-  <si>
-    <t>杜衡</t>
-  </si>
-  <si>
-    <t>char_duheng</t>
-  </si>
-  <si>
-    <t>杜衡_平静_上脸_开始_01|杜衡_思考_上脸_开始_01|杜衡_愤怒2_上脸_开始_01|杜衡_平静_循环_开始_01|杜衡_思考_上脸_循环_01|杜衡_愤怒2_上脸_循环_01</t>
-  </si>
-  <si>
-    <t>duheng_stranger</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>char_shark</t>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-  </si>
-  <si>
-    <t>squirrel</t>
-  </si>
-  <si>
-    <t>char_squirrel</t>
-  </si>
-  <si>
-    <t>松鼠</t>
-  </si>
-  <si>
-    <t>shayushaonv</t>
-  </si>
-  <si>
-    <t>鲨鱼服少女</t>
-  </si>
-  <si>
     <t>sharkzhenhan</t>
   </si>
   <si>
@@ -1006,6 +1042,9 @@
     <t>STS科研人员</t>
   </si>
   <si>
+    <t>STS科研人员_主界面_动作_循环_01</t>
+  </si>
+  <si>
     <t>kaiselin02</t>
   </si>
   <si>
@@ -1171,6 +1210,9 @@
     <t>hero_bingjiu</t>
   </si>
   <si>
+    <t>冰酒_主界面_动作_循环_01</t>
+  </si>
+  <si>
     <t>baixiuzhu</t>
   </si>
   <si>
@@ -1180,6 +1222,12 @@
     <t>char_baixiuzhu</t>
   </si>
   <si>
+    <t>hero_baixiuzhu</t>
+  </si>
+  <si>
+    <t>白秀竹_主界面_动作_循环_01</t>
+  </si>
+  <si>
     <t>caiqianyi</t>
   </si>
   <si>
@@ -1189,6 +1237,9 @@
     <t>hero_caiqianyi</t>
   </si>
   <si>
+    <t>nanren1</t>
+  </si>
+  <si>
     <t>nvren</t>
   </si>
   <si>
@@ -1267,12 +1318,126 @@
     <t>char_maze101_1</t>
   </si>
   <si>
+    <t>npc标准男01_愤怒_动作_循环_01</t>
+  </si>
+  <si>
     <t>char_maze101_2</t>
   </si>
   <si>
     <t>紫发</t>
   </si>
   <si>
+    <t>xinghongruqin</t>
+  </si>
+  <si>
+    <t>猩红入侵</t>
+  </si>
+  <si>
+    <t>char_xinghongruqin</t>
+  </si>
+  <si>
+    <t>chaobopin667</t>
+  </si>
+  <si>
+    <t>超波频667</t>
+  </si>
+  <si>
+    <t>char_leidaniang</t>
+  </si>
+  <si>
+    <t>bingjiu_video</t>
+  </si>
+  <si>
+    <t>冰酒视频</t>
+  </si>
+  <si>
+    <t>char_bingjiu_video</t>
+  </si>
+  <si>
+    <t>obj_maze_button</t>
+  </si>
+  <si>
+    <t>机关</t>
+  </si>
+  <si>
+    <t>yanjingnan</t>
+  </si>
+  <si>
+    <t>眼镜男</t>
+  </si>
+  <si>
+    <t>mizuijinchao</t>
+  </si>
+  <si>
+    <t>迷醉金钞</t>
+  </si>
+  <si>
+    <t>char_mizuijinchao</t>
+  </si>
+  <si>
+    <t>saicheniang</t>
+  </si>
+  <si>
+    <t>极速火花</t>
+  </si>
+  <si>
+    <t>char_saicheniang</t>
+  </si>
+  <si>
+    <t>hero_127</t>
+  </si>
+  <si>
+    <t>maze301_1</t>
+  </si>
+  <si>
+    <t>顾客1</t>
+  </si>
+  <si>
+    <t>maze301_2</t>
+  </si>
+  <si>
+    <t>顾客2</t>
+  </si>
+  <si>
+    <t>npc标准女01_待机_动作_循环_01</t>
+  </si>
+  <si>
+    <t>maze301_3</t>
+  </si>
+  <si>
+    <t>顾客3</t>
+  </si>
+  <si>
+    <t>maze_302_1</t>
+  </si>
+  <si>
+    <t>顾客4</t>
+  </si>
+  <si>
+    <t>maze_302_2</t>
+  </si>
+  <si>
+    <t>顾客5</t>
+  </si>
+  <si>
+    <t>maze_302_3</t>
+  </si>
+  <si>
+    <t>顾客6</t>
+  </si>
+  <si>
+    <t>maze_302_4</t>
+  </si>
+  <si>
+    <t>顾客7</t>
+  </si>
+  <si>
+    <t>maze_302_5</t>
+  </si>
+  <si>
+    <t>顾客8</t>
+  </si>
+  <si>
     <t>顺序类型</t>
   </si>
   <si>
@@ -1372,7 +1537,136 @@
     <t>nfc_90001</t>
   </si>
   <si>
-    <t>npc标准男01_愤怒_动作_循环_01</t>
+    <t>M_A_N_N</t>
+  </si>
+  <si>
+    <t>M_A_N_N_待机_动作_循环_01</t>
+  </si>
+  <si>
+    <t>nfc_90002</t>
+  </si>
+  <si>
+    <t>F_A_N_N</t>
+  </si>
+  <si>
+    <t>F_A_N_N_待机_动作_循环_03</t>
+  </si>
+  <si>
+    <t>nfc_90003</t>
+  </si>
+  <si>
+    <t>nfc_90004</t>
+  </si>
+  <si>
+    <t>nfc_90005</t>
+  </si>
+  <si>
+    <t>nfc_90006</t>
+  </si>
+  <si>
+    <t>nfc_90007</t>
+  </si>
+  <si>
+    <t>nfc_90008</t>
+  </si>
+  <si>
+    <t>nfc_90009</t>
+  </si>
+  <si>
+    <t>nfc_90010</t>
+  </si>
+  <si>
+    <t>nfc_90011</t>
+  </si>
+  <si>
+    <t>nfc_90012</t>
+  </si>
+  <si>
+    <t>nfc_90013</t>
+  </si>
+  <si>
+    <t>nfc_90014</t>
+  </si>
+  <si>
+    <t>nfc_90015</t>
+  </si>
+  <si>
+    <t>nfc_90016</t>
+  </si>
+  <si>
+    <t>nfc_90017</t>
+  </si>
+  <si>
+    <t>nfc_90018</t>
+  </si>
+  <si>
+    <t>nfc_90019</t>
+  </si>
+  <si>
+    <t>nfc_90020</t>
+  </si>
+  <si>
+    <t>nfc_90021</t>
+  </si>
+  <si>
+    <t>nfc_90022</t>
+  </si>
+  <si>
+    <t>嫌疑人</t>
+  </si>
+  <si>
+    <t>nfc_90023</t>
+  </si>
+  <si>
+    <t>nfc_90024</t>
+  </si>
+  <si>
+    <t>nfc_90025</t>
+  </si>
+  <si>
+    <t>nfc_90026</t>
+  </si>
+  <si>
+    <t>nfc_90027</t>
+  </si>
+  <si>
+    <t>nfc_90028</t>
+  </si>
+  <si>
+    <t>nfc_90029</t>
+  </si>
+  <si>
+    <t>nfc_90030</t>
+  </si>
+  <si>
+    <t>nfc_90031</t>
+  </si>
+  <si>
+    <t>nfc_90032</t>
+  </si>
+  <si>
+    <t>nfc_90033</t>
+  </si>
+  <si>
+    <t>nfc_90034</t>
+  </si>
+  <si>
+    <t>nfc_90035</t>
+  </si>
+  <si>
+    <t>nfc_90036</t>
+  </si>
+  <si>
+    <t>nfc_90037</t>
+  </si>
+  <si>
+    <t>nfc_90038</t>
+  </si>
+  <si>
+    <t>nfc_90039</t>
+  </si>
+  <si>
+    <t>nfc_90040</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1890,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1635,13 +1929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399090548417615"/>
+        <fgColor theme="5" tint="0.399060029908139"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,10 +2240,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1952,16 +2252,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1973,10 +2273,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1997,28 +2297,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2027,19 +2327,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2051,34 +2348,37 @@
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2088,7 +2388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2169,6 +2469,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2523,14 +2826,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E43" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="K73" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2542,7 +2845,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="61.625" customWidth="1"/>
     <col min="11" max="11" width="36.25" customWidth="1"/>
@@ -2987,7 +3290,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" ht="40.5" spans="1:15">
+    <row r="14" ht="40.5" spans="1:18">
       <c r="A14" s="17">
         <v>1029</v>
       </c>
@@ -3028,154 +3331,163 @@
       <c r="O14">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="R14" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="9">
         <v>1030</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9">
         <v>0</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" s="20"/>
       <c r="L15" t="s">
         <v>67</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>80</v>
+      </c>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="9">
         <v>1031</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" s="20"/>
       <c r="L16" t="s">
         <v>71</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:15">
+        <v>83</v>
+      </c>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" ht="27" spans="1:18">
       <c r="A17" s="9">
         <v>1032</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="8">
         <v>4</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
         <v>67</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O17">
         <v>1.755</v>
       </c>
-    </row>
-    <row r="18" ht="54" spans="1:14">
+      <c r="R17" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:18">
       <c r="A18" s="9">
         <v>1033</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H18" t="s">
+      <c r="N18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="19">
         <v>1034</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I19" s="8">
         <v>2</v>
@@ -3188,27 +3500,30 @@
         <v>71</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O19">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="R19" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="9">
         <v>1035</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
@@ -3219,24 +3534,25 @@
         <v>71</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>103</v>
+      </c>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="17">
         <v>1036</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
@@ -3247,98 +3563,105 @@
         <v>71</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" ht="54" spans="1:15">
+        <v>105</v>
+      </c>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" ht="54" spans="1:18">
       <c r="A22" s="17">
         <v>1037</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" s="9">
         <v>0</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I22" s="8">
         <v>3</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O22" s="8">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="R22" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="9">
         <v>1038</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J23" s="20"/>
       <c r="L23" t="s">
         <v>63</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>111</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="9">
         <v>1039</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I24" s="8">
         <v>2</v>
@@ -3348,19 +3671,20 @@
         <v>67</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
-    </row>
-    <row r="25" ht="67.5" spans="1:15">
+      <c r="R24" s="27"/>
+    </row>
+    <row r="25" ht="67.5" spans="1:18">
       <c r="A25" s="17">
         <v>1040</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C25" s="9">
         <v>0</v>
@@ -3370,16 +3694,19 @@
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="18" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
         <v>67</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N25" s="18" t="s">
         <v>72</v>
@@ -3387,257 +3714,276 @@
       <c r="O25">
         <v>1.775</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="R25" s="27"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="9">
         <v>1041</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C26" s="9">
         <v>0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L26" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="R26" s="27"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="9">
         <v>1042</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9">
         <v>0</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>125</v>
+      </c>
+      <c r="R27" s="27"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="17">
         <v>1043</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C28" s="9">
         <v>0</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="L28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:15">
+        <v>105</v>
+      </c>
+      <c r="R28" s="27"/>
+    </row>
+    <row r="29" ht="54" spans="1:18">
       <c r="A29" s="17">
         <v>1044</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="18" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="H29" t="s">
+        <v>131</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O29">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="30" ht="162" spans="1:15">
+      <c r="R29" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" ht="162" spans="1:18">
       <c r="A30" s="17">
         <v>1045</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s">
         <v>71</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="O30">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="31" ht="162" spans="1:14">
+      <c r="R30" s="27"/>
+    </row>
+    <row r="31" ht="162" spans="1:18">
       <c r="A31" s="17">
         <v>1046</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="18" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s">
         <v>71</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>138</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="9">
         <v>1047</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="18" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>71</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>143</v>
+      </c>
+      <c r="R32" s="27"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="17">
         <v>1048</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>71</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>146</v>
+      </c>
+      <c r="R33" s="27"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="9">
         <v>1049</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3646,28 +3992,29 @@
         <v>71</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>129</v>
+      </c>
+      <c r="R34" s="27"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="9">
         <v>1050</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="18" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3676,50 +4023,52 @@
         <v>71</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>138</v>
+      </c>
+      <c r="R35" s="27"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="9">
         <v>1051</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>153</v>
+      </c>
+      <c r="R36" s="27"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="9">
         <v>1052</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3728,28 +4077,29 @@
         <v>63</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>156</v>
+      </c>
+      <c r="R37" s="27"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="9">
         <v>1053</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3758,137 +4108,142 @@
         <v>71</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>158</v>
+      </c>
+      <c r="R38" s="27"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="9">
         <v>1054</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>161</v>
+      </c>
+      <c r="R39" s="27"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="9">
         <v>1055</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>164</v>
+      </c>
+      <c r="R40" s="27"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="9">
         <v>1056</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="18" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>63</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>167</v>
+      </c>
+      <c r="R41" s="27"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="9">
         <v>1057</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="20"/>
       <c r="L42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>170</v>
+      </c>
+      <c r="R42" s="27"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="19">
         <v>1058</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -3897,28 +4252,29 @@
         <v>71</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>173</v>
+      </c>
+      <c r="R43" s="27"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="19">
         <v>1059</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -3927,24 +4283,25 @@
         <v>63</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>176</v>
+      </c>
+      <c r="R44" s="27"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="9">
         <v>1060</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3955,103 +4312,108 @@
         <v>63</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="R45" s="27"/>
+    </row>
+    <row r="46" ht="40.5" spans="1:18">
       <c r="A46" s="17">
         <v>1061</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s">
         <v>67</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O46" s="8">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="47" ht="40.5" spans="1:15">
+      <c r="R46" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:18">
       <c r="A47" s="17">
         <v>1062</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>67</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O47" s="8">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="R47" s="27"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="9">
         <v>1063</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -4063,28 +4425,29 @@
         <v>71</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>189</v>
+      </c>
+      <c r="R48" s="27"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="9">
         <v>1064</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -4096,24 +4459,25 @@
         <v>63</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="N49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" ht="40.5" spans="1:15">
+        <v>192</v>
+      </c>
+      <c r="R49" s="27"/>
+    </row>
+    <row r="50" ht="40.5" spans="1:18">
       <c r="A50" s="17">
         <v>1065</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
@@ -4126,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>73</v>
@@ -4137,23 +4501,24 @@
       <c r="O50">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="R50" s="27"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="9">
         <v>1066</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -4162,28 +4527,29 @@
         <v>71</v>
       </c>
       <c r="M51" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>173</v>
+      </c>
+      <c r="R51" s="27"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="9">
         <v>1067</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -4192,28 +4558,29 @@
         <v>71</v>
       </c>
       <c r="M52" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>173</v>
+      </c>
+      <c r="R52" s="27"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="9">
         <v>1068</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -4222,28 +4589,29 @@
         <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>173</v>
+      </c>
+      <c r="R53" s="27"/>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="9">
         <v>1069</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -4252,28 +4620,29 @@
         <v>71</v>
       </c>
       <c r="M54" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>173</v>
+      </c>
+      <c r="R54" s="27"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="9">
         <v>1070</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -4282,27 +4651,28 @@
         <v>63</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>176</v>
+      </c>
+      <c r="R55" s="27"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="9">
         <v>1071</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -4311,27 +4681,28 @@
         <v>63</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N56" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>176</v>
+      </c>
+      <c r="R56" s="27"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="9">
         <v>1072</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -4340,27 +4711,28 @@
         <v>63</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>176</v>
+      </c>
+      <c r="R57" s="27"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="9">
         <v>1073</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -4369,32 +4741,33 @@
         <v>63</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>176</v>
+      </c>
+      <c r="R58" s="27"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="17">
         <v>1074</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="I59" s="9">
         <v>4</v>
@@ -4402,28 +4775,29 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c r="M59" s="9" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>213</v>
+      </c>
+      <c r="R59" s="27"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="17">
         <v>1075</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -4433,63 +4807,67 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="M60" s="9" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" ht="27" spans="1:14">
+        <v>219</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:18">
       <c r="A61" s="17">
         <v>1076</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I61" s="9">
         <v>4</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K61" s="9"/>
       <c r="M61" s="9" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>86</v>
+      </c>
+      <c r="R61" s="27"/>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="9">
         <v>1077</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -4499,82 +4877,85 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c r="M62" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="R62" s="27"/>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="9">
         <v>1078</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F63" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="R63" s="27"/>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="9">
         <v>1079</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="N64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>234</v>
+      </c>
+      <c r="R64" s="27"/>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="9">
         <v>1080</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -4582,25 +4963,26 @@
       <c r="L65" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="R65" s="27"/>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="9">
         <v>1081</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -4608,25 +4990,26 @@
       <c r="L66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="R66" s="27"/>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="9">
         <v>1082</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H67" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -4634,22 +5017,23 @@
       <c r="L67" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="R67" s="27"/>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="9">
         <v>1083</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F68" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -4658,27 +5042,28 @@
         <v>71</v>
       </c>
       <c r="M68" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="N68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>234</v>
+      </c>
+      <c r="R68" s="27"/>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="9">
         <v>1084</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -4687,50 +5072,52 @@
         <v>71</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="N69" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>234</v>
+      </c>
+      <c r="R69" s="27"/>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="9">
         <v>1085</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H70" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="R70" s="27"/>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="9">
         <v>1086</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -4739,30 +5126,31 @@
         <v>71</v>
       </c>
       <c r="M71" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="N71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>219</v>
+      </c>
+      <c r="R71" s="27"/>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="9">
         <v>1087</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -4770,25 +5158,26 @@
       <c r="L72" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="R72" s="27"/>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="9">
         <v>1088</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F73" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4796,22 +5185,23 @@
       <c r="L73" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="R73" s="27"/>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="9">
         <v>1089</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="H74" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -4819,22 +5209,23 @@
       <c r="L74" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="R74" s="27"/>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="9">
         <v>1090</v>
       </c>
       <c r="B75" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -4843,30 +5234,31 @@
         <v>63</v>
       </c>
       <c r="M75" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="N75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>270</v>
+      </c>
+      <c r="R75" s="27"/>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="9">
         <v>1091</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H76" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -4875,28 +5267,34 @@
       <c r="L76" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M76" s="27" t="s">
-        <v>259</v>
+      <c r="M76" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>273</v>
+      </c>
+      <c r="R76" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="9">
         <v>1092</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F77" t="s">
-        <v>265</v>
+        <v>279</v>
+      </c>
+      <c r="H77" t="s">
+        <v>280</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -4905,27 +5303,30 @@
         <v>71</v>
       </c>
       <c r="M77" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="N77" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>278</v>
+      </c>
+      <c r="R77" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="9">
         <v>1093</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="H78" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4934,251 +5335,261 @@
         <v>71</v>
       </c>
       <c r="N78" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>283</v>
+      </c>
+      <c r="R78" s="27"/>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="9">
         <v>1094</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F79" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="N79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="R79" s="27"/>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="9">
         <v>1095</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="M80" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="N80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>234</v>
+      </c>
+      <c r="R80" s="27"/>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="9">
         <v>1096</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F81" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="N81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="R81" s="27"/>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="9">
         <v>1097</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F82" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I82">
         <v>4</v>
       </c>
       <c r="M82" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="N82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>234</v>
+      </c>
+      <c r="R82" s="27"/>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="9">
         <v>1098</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="L83" s="8" t="s">
         <v>71</v>
       </c>
       <c r="M83" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="N83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>219</v>
+      </c>
+      <c r="R83" s="27"/>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="9">
         <v>1099</v>
       </c>
       <c r="B84" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F84" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M84" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="N84" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>295</v>
+      </c>
+      <c r="R84" s="27"/>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="9">
         <v>1100</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F85" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M85" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="N85" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>297</v>
+      </c>
+      <c r="R85" s="27"/>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="9">
         <v>1101</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J86" s="20"/>
       <c r="M86" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>299</v>
+      </c>
+      <c r="R86" s="27"/>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="9">
         <v>1102</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J87" s="20"/>
       <c r="M87" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>301</v>
+      </c>
+      <c r="R87" s="27"/>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="9">
         <v>1103</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -5186,144 +5597,559 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="M88" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="R88" s="27"/>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="9">
         <v>1104</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M89" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="N89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>234</v>
+      </c>
+      <c r="R89" s="27"/>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="9">
         <v>1105</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="R90" s="27"/>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="9">
         <v>1106</v>
       </c>
       <c r="B91" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>310</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
       </c>
       <c r="L91" t="s">
         <v>67</v>
       </c>
-      <c r="M91" t="s">
-        <v>78</v>
-      </c>
-      <c r="N91" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:14">
+      <c r="M91" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="R91" s="27"/>
+    </row>
+    <row r="92" ht="14" customHeight="1" spans="1:18">
       <c r="A92" s="9">
         <v>1107</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="9">
-        <v>1</v>
-      </c>
+      <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c r="M92" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N92" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:14">
+        <v>227</v>
+      </c>
+      <c r="O92">
+        <v>170</v>
+      </c>
+      <c r="Q92">
+        <v>25</v>
+      </c>
+      <c r="R92" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="9">
         <v>1108</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
-        <v>295</v>
-      </c>
+      <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="9">
-        <v>1</v>
-      </c>
+      <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="M93" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N93" t="s">
-        <v>214</v>
+        <v>227</v>
+      </c>
+      <c r="O93">
+        <v>170</v>
+      </c>
+      <c r="Q93">
+        <v>26</v>
+      </c>
+      <c r="R93" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="9">
+        <v>1109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>316</v>
+      </c>
+      <c r="F94" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>1110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>319</v>
+      </c>
+      <c r="F95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="9">
+        <v>1111</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" s="20"/>
+      <c r="L96" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="9">
+        <v>1112</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:14">
+      <c r="A98" s="9">
+        <v>1113</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="9">
+        <v>0</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9">
+        <v>1</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="M98" t="s">
+        <v>224</v>
+      </c>
+      <c r="N98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:6">
+      <c r="A99" s="9">
+        <v>1114</v>
+      </c>
+      <c r="B99" t="s">
+        <v>328</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>329</v>
+      </c>
+      <c r="F99" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:9">
+      <c r="A100" s="9">
+        <v>1115</v>
+      </c>
+      <c r="B100" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>332</v>
+      </c>
+      <c r="F100" t="s">
+        <v>333</v>
+      </c>
+      <c r="H100" t="s">
+        <v>334</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="14" customHeight="1" spans="1:18">
+      <c r="A101" s="9">
+        <v>1116</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" s="9">
+        <v>0</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="M101" t="s">
+        <v>224</v>
+      </c>
+      <c r="N101" t="s">
+        <v>227</v>
+      </c>
+      <c r="O101">
+        <v>170</v>
+      </c>
+      <c r="Q101">
+        <v>39</v>
+      </c>
+      <c r="R101" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="9">
+        <v>1117</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="M102" t="s">
+        <v>231</v>
+      </c>
+      <c r="N102" t="s">
+        <v>234</v>
+      </c>
+      <c r="O102">
+        <v>160</v>
+      </c>
+      <c r="Q102">
+        <v>20</v>
+      </c>
+      <c r="R102" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="9">
+        <v>1118</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="M103" t="s">
+        <v>224</v>
+      </c>
+      <c r="N103" t="s">
+        <v>227</v>
+      </c>
+      <c r="O103">
+        <v>170</v>
+      </c>
+      <c r="Q103">
+        <v>40</v>
+      </c>
+      <c r="R103" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:18">
+      <c r="A104" s="9">
+        <v>1119</v>
+      </c>
+      <c r="B104" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" s="9">
+        <v>0</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="M104" t="s">
+        <v>224</v>
+      </c>
+      <c r="N104" t="s">
+        <v>227</v>
+      </c>
+      <c r="O104">
+        <v>170</v>
+      </c>
+      <c r="Q104">
+        <v>40</v>
+      </c>
+      <c r="R104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:18">
+      <c r="A105" s="9">
+        <v>1120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="9">
+        <v>0</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="M105" t="s">
+        <v>224</v>
+      </c>
+      <c r="N105" t="s">
+        <v>227</v>
+      </c>
+      <c r="O105">
+        <v>170</v>
+      </c>
+      <c r="Q105">
+        <v>40</v>
+      </c>
+      <c r="R105" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" customFormat="1" spans="1:18">
+      <c r="A106" s="9">
+        <v>1121</v>
+      </c>
+      <c r="B106" t="s">
+        <v>346</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="M106" t="s">
+        <v>224</v>
+      </c>
+      <c r="N106" t="s">
+        <v>227</v>
+      </c>
+      <c r="O106">
+        <v>170</v>
+      </c>
+      <c r="Q106">
+        <v>40</v>
+      </c>
+      <c r="R106" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:18">
+      <c r="A107" s="9">
+        <v>1122</v>
+      </c>
+      <c r="B107" t="s">
+        <v>348</v>
+      </c>
+      <c r="C107" s="9">
+        <v>0</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="M107" t="s">
+        <v>224</v>
+      </c>
+      <c r="N107" t="s">
+        <v>227</v>
+      </c>
+      <c r="O107">
+        <v>170</v>
+      </c>
+      <c r="Q107">
+        <v>40</v>
+      </c>
+      <c r="R107" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="9">
+        <v>1123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>350</v>
+      </c>
+      <c r="C108" s="9">
+        <v>0</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="M108" t="s">
+        <v>231</v>
+      </c>
+      <c r="N108" t="s">
+        <v>234</v>
+      </c>
+      <c r="O108">
+        <v>160</v>
+      </c>
+      <c r="Q108">
+        <v>20</v>
+      </c>
+      <c r="R108" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5356,13 +6182,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5370,13 +6196,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5401,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5429,10 +6255,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5443,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5457,10 +6283,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5471,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5485,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5499,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5513,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5527,10 +6353,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5541,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5555,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5569,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -5588,8 +6414,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5783,14 +6611,14 @@
         <v>90001</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="I4" s="7"/>
       <c r="M4" t="s">
-        <v>211</v>
+        <v>385</v>
       </c>
       <c r="N4" t="s">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="O4">
         <v>170</v>
@@ -5799,29 +6627,915 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="9:9">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>90002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>387</v>
+      </c>
       <c r="I5" s="7"/>
-    </row>
-    <row r="14" spans="9:9">
+      <c r="M5" t="s">
+        <v>388</v>
+      </c>
+      <c r="N5" t="s">
+        <v>388</v>
+      </c>
+      <c r="O5">
+        <v>160</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>90003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>390</v>
+      </c>
+      <c r="M6" t="s">
+        <v>388</v>
+      </c>
+      <c r="N6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O6">
+        <v>160</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>90004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O7">
+        <v>160</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>90005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" t="s">
+        <v>388</v>
+      </c>
+      <c r="N8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O8">
+        <v>160</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>90006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="M9" t="s">
+        <v>388</v>
+      </c>
+      <c r="N9" t="s">
+        <v>388</v>
+      </c>
+      <c r="O9">
+        <v>160</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>90007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>394</v>
+      </c>
+      <c r="M10" t="s">
+        <v>388</v>
+      </c>
+      <c r="N10" t="s">
+        <v>388</v>
+      </c>
+      <c r="O10">
+        <v>160</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>90008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>395</v>
+      </c>
+      <c r="M11" t="s">
+        <v>388</v>
+      </c>
+      <c r="N11" t="s">
+        <v>388</v>
+      </c>
+      <c r="O11">
+        <v>160</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>90009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
+      <c r="M12" t="s">
+        <v>388</v>
+      </c>
+      <c r="N12" t="s">
+        <v>388</v>
+      </c>
+      <c r="O12">
+        <v>160</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>90010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>397</v>
+      </c>
+      <c r="M13" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" t="s">
+        <v>388</v>
+      </c>
+      <c r="O13">
+        <v>160</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>90011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>398</v>
+      </c>
       <c r="I14" s="8"/>
-    </row>
-    <row r="17" spans="9:9">
+      <c r="M14" t="s">
+        <v>388</v>
+      </c>
+      <c r="N14" t="s">
+        <v>388</v>
+      </c>
+      <c r="O14">
+        <v>160</v>
+      </c>
+      <c r="Q14">
+        <v>11</v>
+      </c>
+      <c r="R14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>90012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>399</v>
+      </c>
+      <c r="M15" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" t="s">
+        <v>388</v>
+      </c>
+      <c r="O15">
+        <v>160</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>90013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="M16" t="s">
+        <v>388</v>
+      </c>
+      <c r="N16" t="s">
+        <v>388</v>
+      </c>
+      <c r="O16">
+        <v>160</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+      <c r="R16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>90014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>401</v>
+      </c>
       <c r="I17" s="8"/>
-    </row>
-    <row r="19" spans="9:9">
+      <c r="M17" t="s">
+        <v>388</v>
+      </c>
+      <c r="N17" t="s">
+        <v>388</v>
+      </c>
+      <c r="O17">
+        <v>160</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>90015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>402</v>
+      </c>
+      <c r="M18" t="s">
+        <v>388</v>
+      </c>
+      <c r="N18" t="s">
+        <v>388</v>
+      </c>
+      <c r="O18">
+        <v>160</v>
+      </c>
+      <c r="Q18">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>90016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>403</v>
+      </c>
       <c r="I19" s="8"/>
-    </row>
-    <row r="22" spans="9:9">
+      <c r="M19" t="s">
+        <v>388</v>
+      </c>
+      <c r="N19" t="s">
+        <v>388</v>
+      </c>
+      <c r="O19">
+        <v>160</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>90017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>404</v>
+      </c>
+      <c r="M20" t="s">
+        <v>388</v>
+      </c>
+      <c r="N20" t="s">
+        <v>388</v>
+      </c>
+      <c r="O20">
+        <v>160</v>
+      </c>
+      <c r="Q20">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>90018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>405</v>
+      </c>
+      <c r="M21" t="s">
+        <v>388</v>
+      </c>
+      <c r="N21" t="s">
+        <v>388</v>
+      </c>
+      <c r="O21">
+        <v>160</v>
+      </c>
+      <c r="Q21">
+        <v>18</v>
+      </c>
+      <c r="R21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>90019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>406</v>
+      </c>
       <c r="I22" s="8"/>
-    </row>
-    <row r="24" spans="9:9">
+      <c r="M22" t="s">
+        <v>388</v>
+      </c>
+      <c r="N22" t="s">
+        <v>388</v>
+      </c>
+      <c r="O22">
+        <v>160</v>
+      </c>
+      <c r="Q22">
+        <v>19</v>
+      </c>
+      <c r="R22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>90020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>407</v>
+      </c>
+      <c r="M23" t="s">
+        <v>388</v>
+      </c>
+      <c r="N23" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23">
+        <v>160</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>90021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>408</v>
+      </c>
       <c r="I24" s="8"/>
-    </row>
-    <row r="42" spans="9:9">
+      <c r="M24" t="s">
+        <v>388</v>
+      </c>
+      <c r="N24" t="s">
+        <v>388</v>
+      </c>
+      <c r="O24">
+        <v>160</v>
+      </c>
+      <c r="Q24">
+        <v>21</v>
+      </c>
+      <c r="R24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>90022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" t="s">
+        <v>385</v>
+      </c>
+      <c r="N25" t="s">
+        <v>385</v>
+      </c>
+      <c r="O25">
+        <v>170</v>
+      </c>
+      <c r="Q25">
+        <v>22</v>
+      </c>
+      <c r="R25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>90023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>411</v>
+      </c>
+      <c r="M26" t="s">
+        <v>385</v>
+      </c>
+      <c r="N26" t="s">
+        <v>385</v>
+      </c>
+      <c r="O26">
+        <v>170</v>
+      </c>
+      <c r="Q26">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>90024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>412</v>
+      </c>
+      <c r="M27" t="s">
+        <v>385</v>
+      </c>
+      <c r="N27" t="s">
+        <v>385</v>
+      </c>
+      <c r="O27">
+        <v>170</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+      <c r="R27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>90025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>413</v>
+      </c>
+      <c r="M28" t="s">
+        <v>385</v>
+      </c>
+      <c r="N28" t="s">
+        <v>385</v>
+      </c>
+      <c r="O28">
+        <v>170</v>
+      </c>
+      <c r="Q28">
+        <v>25</v>
+      </c>
+      <c r="R28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>90026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>414</v>
+      </c>
+      <c r="M29" t="s">
+        <v>385</v>
+      </c>
+      <c r="N29" t="s">
+        <v>385</v>
+      </c>
+      <c r="O29">
+        <v>170</v>
+      </c>
+      <c r="Q29">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>90027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>415</v>
+      </c>
+      <c r="M30" t="s">
+        <v>385</v>
+      </c>
+      <c r="N30" t="s">
+        <v>385</v>
+      </c>
+      <c r="O30">
+        <v>170</v>
+      </c>
+      <c r="Q30">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>90028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>416</v>
+      </c>
+      <c r="M31" t="s">
+        <v>385</v>
+      </c>
+      <c r="N31" t="s">
+        <v>385</v>
+      </c>
+      <c r="O31">
+        <v>170</v>
+      </c>
+      <c r="Q31">
+        <v>28</v>
+      </c>
+      <c r="R31" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>90029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>417</v>
+      </c>
+      <c r="M32" t="s">
+        <v>385</v>
+      </c>
+      <c r="N32" t="s">
+        <v>385</v>
+      </c>
+      <c r="O32">
+        <v>170</v>
+      </c>
+      <c r="Q32">
+        <v>29</v>
+      </c>
+      <c r="R32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>90030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>418</v>
+      </c>
+      <c r="M33" t="s">
+        <v>385</v>
+      </c>
+      <c r="N33" t="s">
+        <v>385</v>
+      </c>
+      <c r="O33">
+        <v>170</v>
+      </c>
+      <c r="Q33">
+        <v>30</v>
+      </c>
+      <c r="R33" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>90031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>419</v>
+      </c>
+      <c r="M34" t="s">
+        <v>385</v>
+      </c>
+      <c r="N34" t="s">
+        <v>385</v>
+      </c>
+      <c r="O34">
+        <v>170</v>
+      </c>
+      <c r="Q34">
+        <v>31</v>
+      </c>
+      <c r="R34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>90032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>420</v>
+      </c>
+      <c r="M35" t="s">
+        <v>385</v>
+      </c>
+      <c r="N35" t="s">
+        <v>385</v>
+      </c>
+      <c r="O35">
+        <v>170</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
+      </c>
+      <c r="R35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>90033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+      <c r="M36" t="s">
+        <v>385</v>
+      </c>
+      <c r="N36" t="s">
+        <v>385</v>
+      </c>
+      <c r="O36">
+        <v>170</v>
+      </c>
+      <c r="Q36">
+        <v>33</v>
+      </c>
+      <c r="R36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>90034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>422</v>
+      </c>
+      <c r="M37" t="s">
+        <v>385</v>
+      </c>
+      <c r="N37" t="s">
+        <v>385</v>
+      </c>
+      <c r="O37">
+        <v>170</v>
+      </c>
+      <c r="Q37">
+        <v>34</v>
+      </c>
+      <c r="R37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>90035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>423</v>
+      </c>
+      <c r="M38" t="s">
+        <v>385</v>
+      </c>
+      <c r="N38" t="s">
+        <v>385</v>
+      </c>
+      <c r="O38">
+        <v>170</v>
+      </c>
+      <c r="Q38">
+        <v>35</v>
+      </c>
+      <c r="R38" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>90036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>424</v>
+      </c>
+      <c r="M39" t="s">
+        <v>385</v>
+      </c>
+      <c r="N39" t="s">
+        <v>385</v>
+      </c>
+      <c r="O39">
+        <v>170</v>
+      </c>
+      <c r="Q39">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>90037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>425</v>
+      </c>
+      <c r="M40" t="s">
+        <v>385</v>
+      </c>
+      <c r="N40" t="s">
+        <v>385</v>
+      </c>
+      <c r="O40">
+        <v>170</v>
+      </c>
+      <c r="Q40">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>90038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>426</v>
+      </c>
+      <c r="M41" t="s">
+        <v>385</v>
+      </c>
+      <c r="N41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O41">
+        <v>170</v>
+      </c>
+      <c r="Q41">
+        <v>38</v>
+      </c>
+      <c r="R41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>90039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>427</v>
+      </c>
       <c r="I42" s="8"/>
+      <c r="M42" t="s">
+        <v>385</v>
+      </c>
+      <c r="N42" t="s">
+        <v>385</v>
+      </c>
+      <c r="O42">
+        <v>170</v>
+      </c>
+      <c r="Q42">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>90040</v>
+      </c>
+      <c r="B43" t="s">
+        <v>428</v>
+      </c>
+      <c r="M43" t="s">
+        <v>385</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43">
+        <v>170</v>
+      </c>
+      <c r="Q43">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" s="9"/>

--- a/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AVGCharacter" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="445">
   <si>
     <t>ID</t>
   </si>
@@ -613,7 +613,7 @@
     <t>hero_13</t>
   </si>
   <si>
-    <t>涂凌_惊讶_上脸_循环_01|涂凌_惊讶_上脸_开始_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01</t>
+    <t>涂凌_惊讶_上脸_循环_01|涂凌_惊讶_上脸_开始_01|涂凌_平静_上脸_开始_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01|涂凌_忧伤_上脸_开始_01|涂凌_忧伤_上脸_开始_01|涂凌_喘气_上脸_开始_01|涂凌_紧张_上脸_开始_01|涂凌_惊恐_上脸_循环_01|涂凌_惊恐_上脸_开始_01</t>
   </si>
   <si>
     <t>涂凌_主界面_动作_循环_01</t>
@@ -967,9 +967,6 @@
     <t>鲨鱼服少女</t>
   </si>
   <si>
-    <t>涂凌_惊讶_上脸_循环_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01</t>
-  </si>
-  <si>
     <t>sharkzhenhan</t>
   </si>
   <si>
@@ -1039,6 +1036,9 @@
     <t>char_stskeyanrenyuan</t>
   </si>
   <si>
+    <t>voice_didi</t>
+  </si>
+  <si>
     <t>STS科研人员</t>
   </si>
   <si>
@@ -1318,81 +1318,84 @@
     <t>char_maze101_1</t>
   </si>
   <si>
+    <t>绿眼</t>
+  </si>
+  <si>
+    <t>char_maze101_2</t>
+  </si>
+  <si>
+    <t>蓝眼</t>
+  </si>
+  <si>
+    <t>xinghongruqin</t>
+  </si>
+  <si>
+    <t>猩红入侵</t>
+  </si>
+  <si>
+    <t>char_xinghongruqin</t>
+  </si>
+  <si>
+    <t>chaobopin667</t>
+  </si>
+  <si>
+    <t>超波频667</t>
+  </si>
+  <si>
+    <t>char_leidaniang</t>
+  </si>
+  <si>
+    <t>bingjiu_video</t>
+  </si>
+  <si>
+    <t>冰酒视频</t>
+  </si>
+  <si>
+    <t>char_bingjiu_video</t>
+  </si>
+  <si>
+    <t>obj_maze_button</t>
+  </si>
+  <si>
+    <t>机关</t>
+  </si>
+  <si>
+    <t>yanjingnan</t>
+  </si>
+  <si>
+    <t>眼镜男</t>
+  </si>
+  <si>
+    <t>mizuijinchao</t>
+  </si>
+  <si>
+    <t>迷醉金钞</t>
+  </si>
+  <si>
+    <t>char_mizuijinchao</t>
+  </si>
+  <si>
+    <t>saicheniang</t>
+  </si>
+  <si>
+    <t>极速花火</t>
+  </si>
+  <si>
+    <t>char_saicheniang</t>
+  </si>
+  <si>
+    <t>hero_127</t>
+  </si>
+  <si>
+    <t>maze301_1</t>
+  </si>
+  <si>
+    <t>顾客1</t>
+  </si>
+  <si>
     <t>npc标准男01_愤怒_动作_循环_01</t>
   </si>
   <si>
-    <t>char_maze101_2</t>
-  </si>
-  <si>
-    <t>紫发</t>
-  </si>
-  <si>
-    <t>xinghongruqin</t>
-  </si>
-  <si>
-    <t>猩红入侵</t>
-  </si>
-  <si>
-    <t>char_xinghongruqin</t>
-  </si>
-  <si>
-    <t>chaobopin667</t>
-  </si>
-  <si>
-    <t>超波频667</t>
-  </si>
-  <si>
-    <t>char_leidaniang</t>
-  </si>
-  <si>
-    <t>bingjiu_video</t>
-  </si>
-  <si>
-    <t>冰酒视频</t>
-  </si>
-  <si>
-    <t>char_bingjiu_video</t>
-  </si>
-  <si>
-    <t>obj_maze_button</t>
-  </si>
-  <si>
-    <t>机关</t>
-  </si>
-  <si>
-    <t>yanjingnan</t>
-  </si>
-  <si>
-    <t>眼镜男</t>
-  </si>
-  <si>
-    <t>mizuijinchao</t>
-  </si>
-  <si>
-    <t>迷醉金钞</t>
-  </si>
-  <si>
-    <t>char_mizuijinchao</t>
-  </si>
-  <si>
-    <t>saicheniang</t>
-  </si>
-  <si>
-    <t>极速火花</t>
-  </si>
-  <si>
-    <t>char_saicheniang</t>
-  </si>
-  <si>
-    <t>hero_127</t>
-  </si>
-  <si>
-    <t>maze301_1</t>
-  </si>
-  <si>
-    <t>顾客1</t>
-  </si>
-  <si>
     <t>maze301_2</t>
   </si>
   <si>
@@ -1438,6 +1441,24 @@
     <t>顾客8</t>
   </si>
   <si>
+    <t>dianzhuangshaonv</t>
+  </si>
+  <si>
+    <t>电桩少女</t>
+  </si>
+  <si>
+    <t>char_dianzhuangshaonv</t>
+  </si>
+  <si>
+    <t>zaochashaonv</t>
+  </si>
+  <si>
+    <t>早茶少女</t>
+  </si>
+  <si>
+    <t>char_zaochashaonv</t>
+  </si>
+  <si>
     <t>顺序类型</t>
   </si>
   <si>
@@ -1555,6 +1576,9 @@
     <t>nfc_90003</t>
   </si>
   <si>
+    <t>衣着华丽的女人</t>
+  </si>
+  <si>
     <t>nfc_90004</t>
   </si>
   <si>
@@ -1567,6 +1591,9 @@
     <t>nfc_90007</t>
   </si>
   <si>
+    <t>竹姐</t>
+  </si>
+  <si>
     <t>nfc_90008</t>
   </si>
   <si>
@@ -1588,6 +1615,9 @@
     <t>nfc_90014</t>
   </si>
   <si>
+    <t>余阿南妻子</t>
+  </si>
+  <si>
     <t>nfc_90015</t>
   </si>
   <si>
@@ -1609,6 +1639,9 @@
     <t>nfc_90021</t>
   </si>
   <si>
+    <t>打扮精致的女人</t>
+  </si>
+  <si>
     <t>nfc_90022</t>
   </si>
   <si>
@@ -1618,9 +1651,15 @@
     <t>nfc_90023</t>
   </si>
   <si>
+    <t>鬼鬼祟祟的男子</t>
+  </si>
+  <si>
     <t>nfc_90024</t>
   </si>
   <si>
+    <t>猥琐男</t>
+  </si>
+  <si>
     <t>nfc_90025</t>
   </si>
   <si>
@@ -1630,6 +1669,9 @@
     <t>nfc_90027</t>
   </si>
   <si>
+    <t>赌徒</t>
+  </si>
+  <si>
     <t>nfc_90028</t>
   </si>
   <si>
@@ -1639,10 +1681,16 @@
     <t>nfc_90030</t>
   </si>
   <si>
+    <t>衣着精致的男人</t>
+  </si>
+  <si>
     <t>nfc_90031</t>
   </si>
   <si>
     <t>nfc_90032</t>
+  </si>
+  <si>
+    <t>新郎</t>
   </si>
   <si>
     <t>nfc_90033</t>
@@ -1929,19 +1977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399060029908139"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.399060029908139"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,7 +2436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2407,6 +2455,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2431,7 +2488,7 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2440,15 +2497,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2470,7 +2521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2826,14 +2877,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R99" sqref="R99"/>
+      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2943,7 +2994,7 @@
       <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -3025,295 +3076,306 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="14">
+      <c r="A4" s="18">
+        <f>ROW()+996</f>
         <v>1000</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="20"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="21"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
       <c r="Q4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14">
-        <v>1020</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="18">
+        <f t="shared" ref="A5:A14" si="0">ROW()+996</f>
+        <v>1001</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="20" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="14">
-        <v>1021</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18">
+        <f t="shared" si="0"/>
+        <v>1002</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="M6" s="15" t="s">
+      <c r="J6" s="21"/>
+      <c r="M6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="14">
-        <v>1022</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="18">
+        <f t="shared" si="0"/>
+        <v>1003</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="M7" s="15" t="s">
+      <c r="J7" s="21"/>
+      <c r="M7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="14">
-        <v>1023</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="M8" s="15" t="s">
+      <c r="J8" s="21"/>
+      <c r="M8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="14">
-        <v>1024</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="18">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="M9" s="15" t="s">
+      <c r="J9" s="21"/>
+      <c r="M9" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14">
-        <v>1025</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="18">
+        <f t="shared" si="0"/>
+        <v>1006</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="M10" s="15" t="s">
+      <c r="J10" s="21"/>
+      <c r="M10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="9">
-        <v>1026</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="18">
+        <f t="shared" si="0"/>
+        <v>1007</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="9">
-        <v>1027</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="18">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17">
-        <v>1028</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="18">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="L13" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" ht="40.5" spans="1:18">
-      <c r="A14" s="17">
-        <v>1029</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    <row r="14" ht="81" spans="1:18">
+      <c r="A14" s="18">
+        <f t="shared" si="0"/>
+        <v>1010</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="11">
         <v>4</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="23" t="s">
         <v>77</v>
       </c>
       <c r="K14">
@@ -3322,497 +3384,512 @@
       <c r="L14" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="12" t="s">
         <v>74</v>
       </c>
       <c r="O14">
         <v>1.6</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="9">
-        <v>1030</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="18">
+        <f t="shared" ref="A15:A24" si="1">ROW()+996</f>
+        <v>1011</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="21"/>
       <c r="L15" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="R15" s="27"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="9">
-        <v>1031</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="21"/>
       <c r="L16" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="27"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" ht="27" spans="1:18">
-      <c r="A17" s="9">
-        <v>1032</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="11">
         <v>4</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="23" t="s">
         <v>89</v>
       </c>
       <c r="L17" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="12" t="s">
         <v>86</v>
       </c>
       <c r="O17">
         <v>1.755</v>
       </c>
-      <c r="R17" s="27" t="s">
+      <c r="R17" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" ht="54" spans="1:18">
-      <c r="A18" s="9">
-        <v>1033</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="18">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>93</v>
       </c>
       <c r="H18" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="24" t="s">
         <v>95</v>
       </c>
       <c r="L18" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="R18" s="27"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="19">
-        <v>1034</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="18">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="21"/>
       <c r="K19">
         <v>-3</v>
       </c>
       <c r="L19" t="s">
         <v>71</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="12" t="s">
         <v>98</v>
       </c>
       <c r="O19">
         <v>1.8</v>
       </c>
-      <c r="R19" s="27" t="s">
+      <c r="R19" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="9">
-        <v>1035</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="18">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="21"/>
       <c r="L20" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="R20" s="27"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="17">
-        <v>1036</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="18">
+        <f t="shared" si="1"/>
+        <v>1017</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="21"/>
       <c r="L21" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="R21" s="27"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" ht="54" spans="1:18">
-      <c r="A22" s="17">
-        <v>1037</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="18">
+        <f t="shared" si="1"/>
+        <v>1018</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="11">
         <v>3</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="24" t="s">
         <v>95</v>
       </c>
       <c r="L22" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="11">
         <v>1.65</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="R22" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="9">
-        <v>1038</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="18">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="21"/>
       <c r="L23" t="s">
         <v>63</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="R23" s="27" t="s">
+      <c r="R23" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="9">
-        <v>1039</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="18">
+        <f t="shared" si="1"/>
+        <v>1020</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="11">
         <v>2</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="21"/>
       <c r="L24" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O24" s="8"/>
-      <c r="R24" s="27"/>
+      <c r="O24" s="11"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" ht="67.5" spans="1:18">
-      <c r="A25" s="17">
-        <v>1040</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="18">
+        <f t="shared" ref="A25:A34" si="2">ROW()+996</f>
+        <v>1021</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="25" t="s">
         <v>120</v>
       </c>
       <c r="L25" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="20" t="s">
         <v>72</v>
       </c>
       <c r="O25">
         <v>1.775</v>
       </c>
-      <c r="R25" s="27"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="9">
-        <v>1041</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="18">
+        <f t="shared" si="2"/>
+        <v>1022</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
         <v>123</v>
       </c>
       <c r="L26" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R26" s="27"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="9">
-        <v>1042</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="18">
+        <f t="shared" si="2"/>
+        <v>1023</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>126</v>
       </c>
       <c r="L27" t="s">
         <v>96</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="R27" s="27"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="17">
-        <v>1043</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="18">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="L28" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="R28" s="27"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" ht="54" spans="1:18">
-      <c r="A29" s="17">
-        <v>1044</v>
-      </c>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="18">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="20" t="s">
         <v>130</v>
       </c>
       <c r="H29" t="s">
@@ -3821,74 +3898,76 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="26" t="s">
         <v>132</v>
       </c>
       <c r="L29" t="s">
         <v>96</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="20" t="s">
         <v>129</v>
       </c>
       <c r="O29">
         <v>1.78</v>
       </c>
-      <c r="R29" s="27" t="s">
+      <c r="R29" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="30" ht="162" spans="1:18">
-      <c r="A30" s="17">
-        <v>1045</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="18">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="18" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="25" t="s">
         <v>137</v>
       </c>
       <c r="L30" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="12" t="s">
         <v>138</v>
       </c>
       <c r="O30">
         <v>1.76</v>
       </c>
-      <c r="R30" s="27"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" ht="162" spans="1:18">
-      <c r="A31" s="17">
-        <v>1046</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="18">
+        <f t="shared" si="2"/>
+        <v>1027</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="20" t="s">
         <v>136</v>
       </c>
       <c r="H31" t="s">
@@ -3897,123 +3976,127 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="25" t="s">
         <v>137</v>
       </c>
       <c r="L31" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="R31" s="27" t="s">
+      <c r="R31" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="9">
-        <v>1047</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="18">
+        <f t="shared" si="2"/>
+        <v>1028</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="18" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="R32" s="27"/>
+      <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="17">
-        <v>1048</v>
-      </c>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="18">
+        <f t="shared" si="2"/>
+        <v>1029</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="18" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="R33" s="27"/>
+      <c r="R33" s="6"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="9">
-        <v>1049</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="18">
+        <f t="shared" si="2"/>
+        <v>1030</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="20" t="s">
         <v>149</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="R34" s="27"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="9">
-        <v>1050</v>
-      </c>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="18">
+        <f t="shared" ref="A35:A44" si="3">ROW()+996</f>
+        <v>1031</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="9">
-        <v>0</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="18" t="s">
+      <c r="E35" s="12"/>
+      <c r="F35" s="20" t="s">
         <v>151</v>
       </c>
       <c r="I35">
@@ -4022,83 +4105,86 @@
       <c r="L35" t="s">
         <v>71</v>
       </c>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="R35" s="27"/>
+      <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="9">
-        <v>1051</v>
-      </c>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="18">
+        <f t="shared" si="3"/>
+        <v>1032</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="R36" s="27"/>
+      <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="9">
-        <v>1052</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="18">
+        <f t="shared" si="3"/>
+        <v>1033</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="12">
+        <v>0</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="R37" s="27"/>
+      <c r="R37" s="6"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="9">
-        <v>1053</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="18">
+        <f t="shared" si="3"/>
+        <v>1034</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="18" t="s">
+      <c r="E38" s="12"/>
+      <c r="F38" s="20" t="s">
         <v>159</v>
       </c>
       <c r="I38">
@@ -4107,142 +4193,147 @@
       <c r="L38" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="18" t="s">
+      <c r="M38" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="R38" s="27"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="9">
-        <v>1054</v>
-      </c>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="18">
+        <f t="shared" si="3"/>
+        <v>1035</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="R39" s="27"/>
+      <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="9">
-        <v>1055</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="18">
+        <f t="shared" si="3"/>
+        <v>1036</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="R40" s="27"/>
+      <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="9">
-        <v>1056</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="18">
+        <f t="shared" si="3"/>
+        <v>1037</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="9">
-        <v>0</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="12">
+        <v>0</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="M41" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="R41" s="27"/>
+      <c r="R41" s="6"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="9">
-        <v>1057</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="18">
+        <f t="shared" si="3"/>
+        <v>1038</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="9">
-        <v>0</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="15" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="21"/>
       <c r="L42" t="s">
         <v>96</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M42" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="R42" s="27"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="19">
-        <v>1058</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="18">
+        <f t="shared" si="3"/>
+        <v>1039</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="9">
-        <v>0</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" s="12">
+        <v>0</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
         <v>174</v>
       </c>
       <c r="I43">
@@ -4251,89 +4342,92 @@
       <c r="L43" t="s">
         <v>71</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R43" s="27"/>
+      <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="19">
-        <v>1059</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="18">
+        <f t="shared" si="3"/>
+        <v>1040</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="9">
-        <v>0</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
         <v>177</v>
       </c>
       <c r="I44">
         <v>4</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M44" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R44" s="27"/>
+      <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="9">
-        <v>1060</v>
-      </c>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="18">
+        <f t="shared" ref="A45:A54" si="4">ROW()+996</f>
+        <v>1041</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="12">
+        <v>0</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="R45" s="27"/>
+      <c r="R45" s="6"/>
     </row>
     <row r="46" ht="40.5" spans="1:18">
-      <c r="A46" s="17">
-        <v>1061</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="18">
+        <f t="shared" si="4"/>
+        <v>1042</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="9">
-        <v>0</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
         <v>183</v>
       </c>
       <c r="H46" t="s">
@@ -4342,145 +4436,149 @@
       <c r="I46">
         <v>2</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="26" t="s">
         <v>184</v>
       </c>
       <c r="L46" t="s">
         <v>67</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="11">
         <v>1.77</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="R46" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="47" ht="40.5" spans="1:18">
-      <c r="A47" s="17">
-        <v>1062</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="18">
+        <f t="shared" si="4"/>
+        <v>1043</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="9">
-        <v>0</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="12">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
         <v>183</v>
       </c>
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="M47" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="N47" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="11">
         <v>1.77</v>
       </c>
-      <c r="R47" s="27"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="9">
-        <v>1063</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="18">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="9">
-        <v>0</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9">
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12">
         <v>3</v>
       </c>
-      <c r="J48" s="9"/>
+      <c r="J48" s="12"/>
       <c r="L48" t="s">
         <v>71</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" s="12" t="s">
         <v>187</v>
       </c>
       <c r="N48" t="s">
         <v>189</v>
       </c>
-      <c r="R48" s="27"/>
+      <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="9">
-        <v>1064</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="18">
+        <f t="shared" si="4"/>
+        <v>1045</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="9">
-        <v>0</v>
-      </c>
-      <c r="D49" s="9" t="s">
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9">
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12">
         <v>4</v>
       </c>
-      <c r="J49" s="9"/>
+      <c r="J49" s="12"/>
       <c r="L49" t="s">
         <v>63</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="12" t="s">
         <v>190</v>
       </c>
       <c r="N49" t="s">
         <v>192</v>
       </c>
-      <c r="R49" s="27"/>
-    </row>
-    <row r="50" ht="40.5" spans="1:18">
-      <c r="A50" s="17">
-        <v>1065</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="R49" s="6"/>
+    </row>
+    <row r="50" ht="81" spans="1:18">
+      <c r="A50" s="18">
+        <f t="shared" si="4"/>
+        <v>1046</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="9">
-        <v>0</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
         <v>75</v>
       </c>
       <c r="H50" t="s">
@@ -4489,36 +4587,40 @@
       <c r="I50">
         <v>4</v>
       </c>
-      <c r="J50" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M50" s="9" t="s">
+      <c r="J50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="N50" s="12" t="s">
         <v>74</v>
       </c>
       <c r="O50">
         <v>1.6</v>
       </c>
-      <c r="R50" s="27"/>
+      <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="9">
-        <v>1066</v>
+      <c r="A51" s="18">
+        <f t="shared" si="4"/>
+        <v>1047</v>
       </c>
       <c r="B51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="C51" s="9">
-        <v>0</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -4527,29 +4629,30 @@
         <v>71</v>
       </c>
       <c r="M51" t="s">
-        <v>196</v>
-      </c>
-      <c r="N51" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="N51" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R51" s="27"/>
+      <c r="R51" s="6"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="9">
-        <v>1067</v>
+      <c r="A52" s="18">
+        <f t="shared" si="4"/>
+        <v>1048</v>
       </c>
       <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="C52" s="9">
-        <v>0</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -4558,29 +4661,30 @@
         <v>71</v>
       </c>
       <c r="M52" t="s">
-        <v>198</v>
-      </c>
-      <c r="N52" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R52" s="27"/>
+      <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="9">
-        <v>1068</v>
+      <c r="A53" s="18">
+        <f t="shared" si="4"/>
+        <v>1049</v>
       </c>
       <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="C53" s="9">
-        <v>0</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
-        <v>201</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -4589,29 +4693,30 @@
         <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>200</v>
-      </c>
-      <c r="N53" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N53" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R53" s="27"/>
+      <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="9">
-        <v>1069</v>
+      <c r="A54" s="18">
+        <f t="shared" si="4"/>
+        <v>1050</v>
       </c>
       <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="C54" s="9">
-        <v>0</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -4620,273 +4725,291 @@
         <v>71</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
-      </c>
-      <c r="N54" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N54" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R54" s="27"/>
+      <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="9">
-        <v>1070</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="18">
+        <f t="shared" ref="A55:A64" si="5">ROW()+996</f>
+        <v>1051</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="12">
+        <v>0</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="C55" s="9">
-        <v>0</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="I55">
         <v>4</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="N55" s="9" t="s">
+      <c r="M55" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N55" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R55" s="27"/>
+      <c r="R55" s="6"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="9">
-        <v>1071</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="18">
+        <f t="shared" si="5"/>
+        <v>1052</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="12">
+        <v>0</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="C56" s="9">
-        <v>0</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="I56">
         <v>4</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M56" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="M56" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R56" s="27"/>
+      <c r="R56" s="6"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="9">
-        <v>1072</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="18">
+        <f t="shared" si="5"/>
+        <v>1053</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" s="12">
+        <v>0</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="C57" s="9">
-        <v>0</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="I57">
         <v>4</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M57" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="N57" s="9" t="s">
+      <c r="M57" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N57" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R57" s="27"/>
+      <c r="R57" s="6"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="9">
-        <v>1073</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="18">
+        <f t="shared" si="5"/>
+        <v>1054</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="C58" s="9">
-        <v>0</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="I58">
         <v>4</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="N58" s="9" t="s">
+      <c r="M58" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N58" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R58" s="27"/>
+      <c r="R58" s="6"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="17">
-        <v>1074</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="18">
+        <f t="shared" si="5"/>
+        <v>1055</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="12">
+        <v>0</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="9">
-        <v>0</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="12"/>
+      <c r="H59" t="s">
         <v>214</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" t="s">
+      <c r="I59" s="12">
+        <v>4</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="M59" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="R59" s="6"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="18">
+        <f t="shared" si="5"/>
+        <v>1056</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I59" s="9">
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" t="s">
+        <v>218</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:18">
+      <c r="A61" s="18">
+        <f t="shared" si="5"/>
+        <v>1057</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="12">
+        <v>0</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" s="12">
         <v>4</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="M59" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="N59" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="R59" s="27"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="17">
-        <v>1075</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C60" s="9">
-        <v>0</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9" t="s">
+      <c r="J61" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K61" s="12"/>
+      <c r="L61" t="s">
         <v>218</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9">
+      <c r="M61" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="18">
+        <f t="shared" si="5"/>
+        <v>1058</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="12">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12">
         <v>1</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="M60" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="R60" s="27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" ht="27" spans="1:18">
-      <c r="A61" s="17">
-        <v>1076</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="9">
-        <v>0</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I61" s="9">
-        <v>4</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="K61" s="9"/>
-      <c r="M61" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="N61" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="R61" s="27"/>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="9">
-        <v>1077</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="9">
-        <v>0</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9">
-        <v>1</v>
-      </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" t="s">
+        <v>218</v>
+      </c>
       <c r="M62" t="s">
         <v>224</v>
       </c>
       <c r="N62" t="s">
         <v>227</v>
       </c>
-      <c r="R62" s="27"/>
+      <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="9">
-        <v>1078</v>
+      <c r="A63" s="18">
+        <f t="shared" si="5"/>
+        <v>1059</v>
       </c>
       <c r="B63" t="s">
         <v>228</v>
@@ -4903,17 +5026,21 @@
       <c r="I63">
         <v>1</v>
       </c>
+      <c r="L63" t="s">
+        <v>218</v>
+      </c>
       <c r="M63" t="s">
         <v>224</v>
       </c>
       <c r="N63" t="s">
         <v>227</v>
       </c>
-      <c r="R63" s="27"/>
+      <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="9">
-        <v>1079</v>
+      <c r="A64" s="18">
+        <f t="shared" si="5"/>
+        <v>1060</v>
       </c>
       <c r="B64" t="s">
         <v>231</v>
@@ -4930,17 +5057,21 @@
       <c r="I64">
         <v>1</v>
       </c>
+      <c r="L64" t="s">
+        <v>218</v>
+      </c>
       <c r="M64" t="s">
         <v>231</v>
       </c>
       <c r="N64" t="s">
         <v>234</v>
       </c>
-      <c r="R64" s="27"/>
+      <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="9">
-        <v>1080</v>
+      <c r="A65" s="18">
+        <f t="shared" ref="A65:A74" si="6">ROW()+996</f>
+        <v>1061</v>
       </c>
       <c r="B65" t="s">
         <v>235</v>
@@ -4963,11 +5094,12 @@
       <c r="L65" t="s">
         <v>71</v>
       </c>
-      <c r="R65" s="27"/>
+      <c r="R65" s="6"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="9">
-        <v>1081</v>
+      <c r="A66" s="18">
+        <f t="shared" si="6"/>
+        <v>1062</v>
       </c>
       <c r="B66" t="s">
         <v>239</v>
@@ -4990,11 +5122,12 @@
       <c r="L66" t="s">
         <v>71</v>
       </c>
-      <c r="R66" s="27"/>
+      <c r="R66" s="6"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="9">
-        <v>1082</v>
+      <c r="A67" s="18">
+        <f t="shared" si="6"/>
+        <v>1063</v>
       </c>
       <c r="B67" t="s">
         <v>243</v>
@@ -5017,11 +5150,12 @@
       <c r="L67" t="s">
         <v>71</v>
       </c>
-      <c r="R67" s="27"/>
+      <c r="R67" s="6"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="9">
-        <v>1083</v>
+      <c r="A68" s="18">
+        <f t="shared" si="6"/>
+        <v>1064</v>
       </c>
       <c r="B68" t="s">
         <v>247</v>
@@ -5047,11 +5181,12 @@
       <c r="N68" t="s">
         <v>234</v>
       </c>
-      <c r="R68" s="27"/>
+      <c r="R68" s="6"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="9">
-        <v>1084</v>
+      <c r="A69" s="18">
+        <f t="shared" si="6"/>
+        <v>1065</v>
       </c>
       <c r="B69" t="s">
         <v>250</v>
@@ -5077,11 +5212,12 @@
       <c r="N69" t="s">
         <v>234</v>
       </c>
-      <c r="R69" s="27"/>
+      <c r="R69" s="6"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="9">
-        <v>1085</v>
+      <c r="A70" s="18">
+        <f t="shared" si="6"/>
+        <v>1066</v>
       </c>
       <c r="B70" t="s">
         <v>253</v>
@@ -5101,11 +5237,15 @@
       <c r="I70">
         <v>2</v>
       </c>
-      <c r="R70" s="27"/>
+      <c r="L70" t="s">
+        <v>218</v>
+      </c>
+      <c r="R70" s="6"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="9">
-        <v>1086</v>
+      <c r="A71" s="18">
+        <f t="shared" si="6"/>
+        <v>1067</v>
       </c>
       <c r="B71" t="s">
         <v>257</v>
@@ -5114,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
         <v>258</v>
@@ -5122,20 +5262,21 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="11" t="s">
         <v>71</v>
       </c>
       <c r="M71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N71" t="s">
         <v>219</v>
       </c>
-      <c r="R71" s="27"/>
+      <c r="R71" s="6"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="9">
-        <v>1087</v>
+      <c r="A72" s="18">
+        <f t="shared" si="6"/>
+        <v>1068</v>
       </c>
       <c r="B72" t="s">
         <v>259</v>
@@ -5155,14 +5296,15 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R72" s="27"/>
+      <c r="R72" s="6"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="A73" s="9">
-        <v>1088</v>
+      <c r="A73" s="18">
+        <f t="shared" si="6"/>
+        <v>1069</v>
       </c>
       <c r="B73" t="s">
         <v>263</v>
@@ -5182,14 +5324,15 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L73" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R73" s="27"/>
+      <c r="R73" s="6"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="9">
-        <v>1089</v>
+      <c r="A74" s="18">
+        <f t="shared" si="6"/>
+        <v>1070</v>
       </c>
       <c r="B74" t="s">
         <v>267</v>
@@ -5201,19 +5344,20 @@
         <v>268</v>
       </c>
       <c r="H74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I74">
         <v>4</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="L74" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R74" s="27"/>
+      <c r="R74" s="6"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="9">
-        <v>1090</v>
+      <c r="A75" s="18">
+        <f t="shared" ref="A75:A84" si="7">ROW()+996</f>
+        <v>1071</v>
       </c>
       <c r="B75" t="s">
         <v>269</v>
@@ -5230,7 +5374,7 @@
       <c r="I75">
         <v>4</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="11" t="s">
         <v>63</v>
       </c>
       <c r="M75" t="s">
@@ -5239,22 +5383,23 @@
       <c r="N75" t="s">
         <v>270</v>
       </c>
-      <c r="R75" s="27"/>
+      <c r="R75" s="6"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="9">
-        <v>1091</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="18">
+        <f t="shared" si="7"/>
+        <v>1072</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="11" t="s">
         <v>274</v>
       </c>
       <c r="H76" t="s">
@@ -5263,23 +5408,24 @@
       <c r="I76">
         <v>2</v>
       </c>
-      <c r="J76" s="20"/>
-      <c r="L76" s="8" t="s">
+      <c r="J76" s="21"/>
+      <c r="L76" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M76" s="28" t="s">
+      <c r="M76" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="R76" s="27" t="s">
+      <c r="R76" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="9">
-        <v>1092</v>
+      <c r="A77" s="18">
+        <f t="shared" si="7"/>
+        <v>1073</v>
       </c>
       <c r="B77" t="s">
         <v>277</v>
@@ -5308,13 +5454,14 @@
       <c r="N77" t="s">
         <v>278</v>
       </c>
-      <c r="R77" s="27" t="s">
+      <c r="R77" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="9">
-        <v>1093</v>
+      <c r="A78" s="18">
+        <f t="shared" si="7"/>
+        <v>1074</v>
       </c>
       <c r="B78" t="s">
         <v>282</v>
@@ -5337,11 +5484,12 @@
       <c r="N78" t="s">
         <v>283</v>
       </c>
-      <c r="R78" s="27"/>
+      <c r="R78" s="6"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="9">
-        <v>1094</v>
+      <c r="A79" s="18">
+        <f t="shared" si="7"/>
+        <v>1075</v>
       </c>
       <c r="B79" t="s">
         <v>285</v>
@@ -5358,17 +5506,21 @@
       <c r="I79">
         <v>1</v>
       </c>
+      <c r="L79" t="s">
+        <v>218</v>
+      </c>
       <c r="M79" t="s">
         <v>226</v>
       </c>
       <c r="N79" t="s">
         <v>227</v>
       </c>
-      <c r="R79" s="27"/>
+      <c r="R79" s="6"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="9">
-        <v>1095</v>
+      <c r="A80" s="18">
+        <f t="shared" si="7"/>
+        <v>1076</v>
       </c>
       <c r="B80" t="s">
         <v>286</v>
@@ -5385,17 +5537,21 @@
       <c r="I80">
         <v>2</v>
       </c>
+      <c r="L80" t="s">
+        <v>218</v>
+      </c>
       <c r="M80" t="s">
         <v>233</v>
       </c>
       <c r="N80" t="s">
         <v>234</v>
       </c>
-      <c r="R80" s="27"/>
+      <c r="R80" s="6"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="9">
-        <v>1096</v>
+      <c r="A81" s="18">
+        <f t="shared" si="7"/>
+        <v>1077</v>
       </c>
       <c r="B81" t="s">
         <v>288</v>
@@ -5412,17 +5568,21 @@
       <c r="I81">
         <v>1</v>
       </c>
+      <c r="L81" t="s">
+        <v>218</v>
+      </c>
       <c r="M81" t="s">
         <v>226</v>
       </c>
       <c r="N81" t="s">
         <v>227</v>
       </c>
-      <c r="R81" s="27"/>
+      <c r="R81" s="6"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="9">
-        <v>1097</v>
+      <c r="A82" s="18">
+        <f t="shared" si="7"/>
+        <v>1078</v>
       </c>
       <c r="B82" t="s">
         <v>290</v>
@@ -5439,17 +5599,21 @@
       <c r="I82">
         <v>4</v>
       </c>
+      <c r="L82" t="s">
+        <v>218</v>
+      </c>
       <c r="M82" t="s">
         <v>233</v>
       </c>
       <c r="N82" t="s">
         <v>234</v>
       </c>
-      <c r="R82" s="27"/>
+      <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="9">
-        <v>1098</v>
+      <c r="A83" s="18">
+        <f t="shared" si="7"/>
+        <v>1079</v>
       </c>
       <c r="B83" t="s">
         <v>292</v>
@@ -5463,20 +5627,21 @@
       <c r="F83" t="s">
         <v>258</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="L83" s="11" t="s">
         <v>71</v>
       </c>
       <c r="M83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N83" t="s">
         <v>219</v>
       </c>
-      <c r="R83" s="27"/>
+      <c r="R83" s="6"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="9">
-        <v>1099</v>
+      <c r="A84" s="18">
+        <f t="shared" si="7"/>
+        <v>1080</v>
       </c>
       <c r="B84" t="s">
         <v>294</v>
@@ -5490,17 +5655,21 @@
       <c r="F84" t="s">
         <v>226</v>
       </c>
+      <c r="L84" t="s">
+        <v>218</v>
+      </c>
       <c r="M84" t="s">
         <v>226</v>
       </c>
       <c r="N84" t="s">
         <v>295</v>
       </c>
-      <c r="R84" s="27"/>
+      <c r="R84" s="6"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="9">
-        <v>1100</v>
+      <c r="A85" s="18">
+        <f t="shared" ref="A85:A94" si="8">ROW()+996</f>
+        <v>1081</v>
       </c>
       <c r="B85" t="s">
         <v>296</v>
@@ -5514,99 +5683,115 @@
       <c r="F85" t="s">
         <v>233</v>
       </c>
+      <c r="L85" t="s">
+        <v>218</v>
+      </c>
       <c r="M85" t="s">
         <v>233</v>
       </c>
       <c r="N85" t="s">
         <v>297</v>
       </c>
-      <c r="R85" s="27"/>
+      <c r="R85" s="6"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="9">
-        <v>1101</v>
-      </c>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="18">
+        <f t="shared" si="8"/>
+        <v>1082</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C86" s="9">
-        <v>0</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="C86" s="12">
+        <v>0</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="18" t="s">
+      <c r="E86" s="12"/>
+      <c r="F86" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J86" s="20"/>
-      <c r="M86" s="9" t="s">
+      <c r="J86" s="21"/>
+      <c r="L86" t="s">
+        <v>218</v>
+      </c>
+      <c r="M86" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="R86" s="27"/>
+      <c r="R86" s="6"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="9">
-        <v>1102</v>
-      </c>
-      <c r="B87" s="9" t="s">
+      <c r="A87" s="18">
+        <f t="shared" si="8"/>
+        <v>1083</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C87" s="9">
-        <v>0</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="12">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="18" t="s">
+      <c r="E87" s="12"/>
+      <c r="F87" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="J87" s="20"/>
-      <c r="M87" s="9" t="s">
+      <c r="J87" s="21"/>
+      <c r="L87" t="s">
+        <v>218</v>
+      </c>
+      <c r="M87" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N87" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="R87" s="27"/>
+      <c r="R87" s="6"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="9">
-        <v>1103</v>
-      </c>
-      <c r="B88" s="9" t="s">
+      <c r="A88" s="18">
+        <f t="shared" si="8"/>
+        <v>1084</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C88" s="9">
-        <v>0</v>
-      </c>
-      <c r="D88" s="9" t="s">
+      <c r="C88" s="12">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9" t="s">
+      <c r="E88" s="12"/>
+      <c r="F88" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" t="s">
+        <v>218</v>
+      </c>
       <c r="M88" t="s">
         <v>224</v>
       </c>
       <c r="N88" t="s">
         <v>227</v>
       </c>
-      <c r="R88" s="27"/>
+      <c r="R88" s="6"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="9">
-        <v>1104</v>
+      <c r="A89" s="18">
+        <f t="shared" si="8"/>
+        <v>1085</v>
       </c>
       <c r="B89" t="s">
         <v>304</v>
@@ -5620,17 +5805,21 @@
       <c r="F89" t="s">
         <v>233</v>
       </c>
+      <c r="L89" t="s">
+        <v>218</v>
+      </c>
       <c r="M89" t="s">
         <v>231</v>
       </c>
       <c r="N89" t="s">
         <v>234</v>
       </c>
-      <c r="R89" s="27"/>
+      <c r="R89" s="6"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="9">
-        <v>1105</v>
+      <c r="A90" s="18">
+        <f t="shared" si="8"/>
+        <v>1086</v>
       </c>
       <c r="B90" t="s">
         <v>306</v>
@@ -5644,17 +5833,21 @@
       <c r="I90">
         <v>1</v>
       </c>
+      <c r="L90" t="s">
+        <v>218</v>
+      </c>
       <c r="M90" t="s">
         <v>224</v>
       </c>
       <c r="N90" t="s">
         <v>227</v>
       </c>
-      <c r="R90" s="27"/>
+      <c r="R90" s="6"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="9">
-        <v>1106</v>
+      <c r="A91" s="18">
+        <f t="shared" si="8"/>
+        <v>1087</v>
       </c>
       <c r="B91" t="s">
         <v>308</v>
@@ -5674,89 +5867,68 @@
       <c r="L91" t="s">
         <v>67</v>
       </c>
-      <c r="M91" s="9" t="s">
+      <c r="M91" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="N91" s="9" t="s">
+      <c r="N91" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="R91" s="27"/>
+      <c r="R91" s="6"/>
     </row>
     <row r="92" ht="14" customHeight="1" spans="1:18">
-      <c r="A92" s="9">
-        <v>1107</v>
-      </c>
-      <c r="B92" s="9" t="s">
+      <c r="A92" s="18">
+        <f t="shared" si="8"/>
+        <v>1088</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="9">
-        <v>0</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="M92" t="s">
-        <v>224</v>
-      </c>
-      <c r="N92" t="s">
-        <v>227</v>
-      </c>
-      <c r="O92">
-        <v>170</v>
-      </c>
-      <c r="Q92">
-        <v>25</v>
-      </c>
-      <c r="R92" s="27" t="s">
+      <c r="C92" s="12">
+        <v>0</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>312</v>
       </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="R92" s="6"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="9">
-        <v>1108</v>
-      </c>
-      <c r="B93" s="9" t="s">
+      <c r="A93" s="18">
+        <f t="shared" si="8"/>
+        <v>1089</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C93" s="9">
-        <v>0</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="C93" s="12">
+        <v>0</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="M93" t="s">
-        <v>224</v>
-      </c>
-      <c r="N93" t="s">
-        <v>227</v>
-      </c>
-      <c r="O93">
-        <v>170</v>
-      </c>
-      <c r="Q93">
-        <v>26</v>
-      </c>
-      <c r="R93" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="9">
-        <v>1109</v>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="R93" s="6"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="18">
+        <f t="shared" si="8"/>
+        <v>1090</v>
       </c>
       <c r="B94" t="s">
         <v>315</v>
@@ -5770,10 +5942,14 @@
       <c r="F94" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>1110</v>
+      <c r="L94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="18">
+        <f t="shared" ref="A95:A104" si="9">ROW()+996</f>
+        <v>1091</v>
       </c>
       <c r="B95" t="s">
         <v>318</v>
@@ -5787,42 +5963,47 @@
       <c r="F95" t="s">
         <v>320</v>
       </c>
+      <c r="L95" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="9">
-        <v>1111</v>
-      </c>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="18">
+        <f t="shared" si="9"/>
+        <v>1092</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>321</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="11" t="s">
         <v>323</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
-      <c r="J96" s="20"/>
-      <c r="L96" s="8" t="s">
+      <c r="J96" s="21"/>
+      <c r="L96" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M96" s="28" t="s">
+      <c r="M96" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="N96" s="9" t="s">
+      <c r="N96" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="9">
-        <v>1112</v>
-      </c>
-      <c r="B97" s="9" t="s">
+      <c r="A97" s="18">
+        <f t="shared" si="9"/>
+        <v>1093</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>324</v>
       </c>
       <c r="C97">
@@ -5831,34 +6012,38 @@
       <c r="D97" t="s">
         <v>325</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="12" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:14">
-      <c r="A98" s="9">
-        <v>1113</v>
-      </c>
-      <c r="B98" s="9" t="s">
+      <c r="A98" s="18">
+        <f t="shared" si="9"/>
+        <v>1094</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C98" s="9">
-        <v>0</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="C98" s="12">
+        <v>0</v>
+      </c>
+      <c r="D98" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
+      <c r="E98" s="12"/>
+      <c r="F98" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9">
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12">
         <v>1</v>
       </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" t="s">
+        <v>218</v>
+      </c>
       <c r="M98" t="s">
         <v>224</v>
       </c>
@@ -5866,9 +6051,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="99" customFormat="1" spans="1:6">
-      <c r="A99" s="9">
-        <v>1114</v>
+    <row r="99" customFormat="1" spans="1:12">
+      <c r="A99" s="18">
+        <f t="shared" si="9"/>
+        <v>1095</v>
       </c>
       <c r="B99" t="s">
         <v>328</v>
@@ -5882,10 +6068,14 @@
       <c r="F99" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:9">
-      <c r="A100" s="9">
-        <v>1115</v>
+      <c r="L99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" spans="1:12">
+      <c r="A100" s="18">
+        <f t="shared" si="9"/>
+        <v>1096</v>
       </c>
       <c r="B100" t="s">
         <v>331</v>
@@ -5893,7 +6083,7 @@
       <c r="C100">
         <v>0</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="28" t="s">
         <v>332</v>
       </c>
       <c r="F100" t="s">
@@ -5905,27 +6095,34 @@
       <c r="I100">
         <v>2</v>
       </c>
+      <c r="L100" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="101" ht="14" customHeight="1" spans="1:18">
-      <c r="A101" s="9">
-        <v>1116</v>
-      </c>
-      <c r="B101" s="9" t="s">
+      <c r="A101" s="18">
+        <f t="shared" si="9"/>
+        <v>1097</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="C101" s="9">
-        <v>0</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" t="s">
+        <v>218</v>
+      </c>
       <c r="M101" t="s">
         <v>224</v>
       </c>
@@ -5939,29 +6136,33 @@
         <v>39</v>
       </c>
       <c r="R101" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="9">
-        <v>1117</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C102" s="9">
-        <v>0</v>
-      </c>
-      <c r="D102" s="9" t="s">
+      <c r="A102" s="18">
+        <f t="shared" si="9"/>
+        <v>1098</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" t="s">
+        <v>218</v>
+      </c>
       <c r="M102" t="s">
         <v>231</v>
       </c>
@@ -5975,21 +6176,25 @@
         <v>20</v>
       </c>
       <c r="R102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="9">
-        <v>1118</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>340</v>
+      <c r="A103" s="18">
+        <f t="shared" si="9"/>
+        <v>1099</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>341</v>
+      <c r="D103" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="L103" t="s">
+        <v>218</v>
       </c>
       <c r="M103" t="s">
         <v>224</v>
@@ -6004,21 +6209,25 @@
         <v>40</v>
       </c>
       <c r="R103" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:18">
-      <c r="A104" s="9">
-        <v>1119</v>
+      <c r="A104" s="18">
+        <f t="shared" si="9"/>
+        <v>1100</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
-      </c>
-      <c r="C104" s="9">
-        <v>0</v>
-      </c>
-      <c r="D104" s="9" t="s">
         <v>343</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="L104" t="s">
+        <v>218</v>
       </c>
       <c r="M104" t="s">
         <v>224</v>
@@ -6033,21 +6242,25 @@
         <v>40</v>
       </c>
       <c r="R104" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:18">
-      <c r="A105" s="9">
-        <v>1120</v>
+      <c r="A105" s="18">
+        <f t="shared" ref="A105:A110" si="10">ROW()+996</f>
+        <v>1101</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
-      </c>
-      <c r="C105" s="9">
-        <v>0</v>
-      </c>
-      <c r="D105" s="9" t="s">
         <v>345</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="L105" t="s">
+        <v>218</v>
       </c>
       <c r="M105" t="s">
         <v>224</v>
@@ -6062,21 +6275,25 @@
         <v>40</v>
       </c>
       <c r="R105" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:18">
-      <c r="A106" s="9">
-        <v>1121</v>
+      <c r="A106" s="18">
+        <f t="shared" si="10"/>
+        <v>1102</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>347</v>
+      <c r="D106" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="L106" t="s">
+        <v>218</v>
       </c>
       <c r="M106" t="s">
         <v>224</v>
@@ -6091,21 +6308,25 @@
         <v>40</v>
       </c>
       <c r="R106" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:18">
-      <c r="A107" s="9">
-        <v>1122</v>
+      <c r="A107" s="18">
+        <f t="shared" si="10"/>
+        <v>1103</v>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
-      </c>
-      <c r="C107" s="9">
-        <v>0</v>
-      </c>
-      <c r="D107" s="9" t="s">
         <v>349</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="L107" t="s">
+        <v>218</v>
       </c>
       <c r="M107" t="s">
         <v>224</v>
@@ -6120,21 +6341,25 @@
         <v>40</v>
       </c>
       <c r="R107" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:18">
-      <c r="A108" s="9">
-        <v>1123</v>
+      <c r="A108" s="18">
+        <f t="shared" si="10"/>
+        <v>1104</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
-      </c>
-      <c r="C108" s="9">
-        <v>0</v>
-      </c>
-      <c r="D108" s="9" t="s">
         <v>351</v>
+      </c>
+      <c r="C108" s="12">
+        <v>0</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="L108" t="s">
+        <v>218</v>
       </c>
       <c r="M108" t="s">
         <v>231</v>
@@ -6149,7 +6374,43 @@
         <v>20</v>
       </c>
       <c r="R108" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="18">
+        <f t="shared" si="10"/>
+        <v>1105</v>
+      </c>
+      <c r="B109" t="s">
+        <v>353</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="18">
+        <f t="shared" si="10"/>
+        <v>1106</v>
+      </c>
+      <c r="B110" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6434,7 @@
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="46.375" style="13" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6182,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6196,13 +6457,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>356</v>
+        <v>362</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>363</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6212,7 +6473,7 @@
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6220,185 +6481,185 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="17">
         <v>102101</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>359</v>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14">
+      <c r="A5" s="17">
         <v>102102</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>361</v>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14">
+      <c r="A6" s="17">
         <v>102103</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>363</v>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14">
+      <c r="A7" s="17">
         <v>102104</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>365</v>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14">
+      <c r="A8" s="17">
         <v>102105</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>367</v>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14">
+      <c r="A9" s="17">
         <v>102107</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>368</v>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14">
+      <c r="A10" s="17">
         <v>102108</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>370</v>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14">
+      <c r="A11" s="17">
         <v>102109</v>
       </c>
-      <c r="B11" s="15">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>372</v>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14">
+      <c r="A12" s="17">
         <v>102110</v>
       </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>374</v>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14">
+      <c r="A13" s="17">
         <v>102111</v>
       </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>377</v>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="14">
+      <c r="A14" s="17">
         <v>102113</v>
       </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>379</v>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="14">
+      <c r="A15" s="17">
         <v>102115</v>
       </c>
-      <c r="B15" s="15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>381</v>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="14">
+      <c r="A16" s="17">
         <v>102117</v>
       </c>
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>383</v>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6417,7 +6678,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6525,7 +6786,7 @@
       <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -6611,14 +6872,17 @@
         <v>90001</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>391</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="L4" t="s">
+        <v>218</v>
+      </c>
       <c r="M4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O4">
         <v>170</v>
@@ -6627,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6635,14 +6899,20 @@
         <v>90002</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>394</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="L5" t="s">
+        <v>218</v>
+      </c>
       <c r="M5" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N5" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O5">
         <v>160</v>
@@ -6651,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6659,13 +6929,22 @@
         <v>90003</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>397</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>218</v>
       </c>
       <c r="M6" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N6" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O6">
         <v>160</v>
@@ -6674,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6682,13 +6961,16 @@
         <v>90004</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>399</v>
+      </c>
+      <c r="L7" t="s">
+        <v>218</v>
       </c>
       <c r="M7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O7">
         <v>160</v>
@@ -6697,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -6705,13 +6987,16 @@
         <v>90005</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>400</v>
+      </c>
+      <c r="L8" t="s">
+        <v>218</v>
       </c>
       <c r="M8" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N8" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O8">
         <v>160</v>
@@ -6720,7 +7005,7 @@
         <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -6728,13 +7013,16 @@
         <v>90006</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="L9" t="s">
+        <v>218</v>
       </c>
       <c r="M9" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N9" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O9">
         <v>160</v>
@@ -6743,7 +7031,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -6751,13 +7039,19 @@
         <v>90007</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>402</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="L10" t="s">
+        <v>218</v>
       </c>
       <c r="M10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O10">
         <v>160</v>
@@ -6766,7 +7060,7 @@
         <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -6774,13 +7068,16 @@
         <v>90008</v>
       </c>
       <c r="B11" t="s">
+        <v>404</v>
+      </c>
+      <c r="L11" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" t="s">
         <v>395</v>
       </c>
-      <c r="M11" t="s">
-        <v>388</v>
-      </c>
       <c r="N11" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O11">
         <v>160</v>
@@ -6789,7 +7086,7 @@
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -6797,13 +7094,16 @@
         <v>90009</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>405</v>
+      </c>
+      <c r="L12" t="s">
+        <v>218</v>
       </c>
       <c r="M12" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N12" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O12">
         <v>160</v>
@@ -6812,7 +7112,7 @@
         <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -6820,13 +7120,16 @@
         <v>90010</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>406</v>
+      </c>
+      <c r="L13" t="s">
+        <v>218</v>
       </c>
       <c r="M13" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N13" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O13">
         <v>160</v>
@@ -6835,7 +7138,7 @@
         <v>10</v>
       </c>
       <c r="R13" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -6843,14 +7146,20 @@
         <v>90011</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="I14" s="8"/>
+        <v>407</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="L14" t="s">
+        <v>218</v>
+      </c>
       <c r="M14" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N14" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O14">
         <v>160</v>
@@ -6859,7 +7168,7 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -6867,13 +7176,16 @@
         <v>90012</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>408</v>
+      </c>
+      <c r="L15" t="s">
+        <v>218</v>
       </c>
       <c r="M15" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N15" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O15">
         <v>160</v>
@@ -6882,7 +7194,7 @@
         <v>12</v>
       </c>
       <c r="R15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -6890,13 +7202,16 @@
         <v>90013</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>409</v>
+      </c>
+      <c r="L16" t="s">
+        <v>218</v>
       </c>
       <c r="M16" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N16" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O16">
         <v>160</v>
@@ -6905,7 +7220,7 @@
         <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -6913,14 +7228,20 @@
         <v>90014</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
-      </c>
-      <c r="I17" s="8"/>
+        <v>410</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="L17" t="s">
+        <v>218</v>
+      </c>
       <c r="M17" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N17" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O17">
         <v>160</v>
@@ -6929,7 +7250,7 @@
         <v>14</v>
       </c>
       <c r="R17" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -6937,13 +7258,16 @@
         <v>90015</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>412</v>
+      </c>
+      <c r="L18" t="s">
+        <v>218</v>
       </c>
       <c r="M18" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N18" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O18">
         <v>160</v>
@@ -6952,7 +7276,7 @@
         <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -6960,14 +7284,17 @@
         <v>90016</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>413</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="L19" t="s">
+        <v>218</v>
+      </c>
       <c r="M19" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N19" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O19">
         <v>160</v>
@@ -6976,7 +7303,7 @@
         <v>16</v>
       </c>
       <c r="R19" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -6984,13 +7311,16 @@
         <v>90017</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>414</v>
+      </c>
+      <c r="L20" t="s">
+        <v>218</v>
       </c>
       <c r="M20" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N20" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O20">
         <v>160</v>
@@ -6999,7 +7329,7 @@
         <v>17</v>
       </c>
       <c r="R20" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -7007,13 +7337,16 @@
         <v>90018</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>415</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
       </c>
       <c r="M21" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N21" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O21">
         <v>160</v>
@@ -7022,7 +7355,7 @@
         <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -7030,14 +7363,17 @@
         <v>90019</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
-      </c>
-      <c r="I22" s="8"/>
+        <v>416</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
       <c r="M22" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N22" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O22">
         <v>160</v>
@@ -7046,7 +7382,7 @@
         <v>19</v>
       </c>
       <c r="R22" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -7054,13 +7390,16 @@
         <v>90020</v>
       </c>
       <c r="B23" t="s">
-        <v>407</v>
+        <v>417</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
       </c>
       <c r="M23" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N23" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O23">
         <v>160</v>
@@ -7069,7 +7408,7 @@
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -7077,14 +7416,20 @@
         <v>90021</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>418</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
       <c r="M24" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N24" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="O24">
         <v>160</v>
@@ -7093,7 +7438,7 @@
         <v>21</v>
       </c>
       <c r="R24" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -7101,16 +7446,19 @@
         <v>90022</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>421</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
       </c>
       <c r="M25" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N25" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O25">
         <v>170</v>
@@ -7119,7 +7467,7 @@
         <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -7127,13 +7475,19 @@
         <v>90023</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>422</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L26" t="s">
+        <v>218</v>
       </c>
       <c r="M26" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N26" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O26">
         <v>170</v>
@@ -7142,7 +7496,7 @@
         <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -7150,13 +7504,19 @@
         <v>90024</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>424</v>
+      </c>
+      <c r="D27" t="s">
+        <v>425</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
       </c>
       <c r="M27" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N27" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O27">
         <v>170</v>
@@ -7165,7 +7525,7 @@
         <v>24</v>
       </c>
       <c r="R27" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -7173,13 +7533,19 @@
         <v>90025</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>426</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
       </c>
       <c r="M28" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N28" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O28">
         <v>170</v>
@@ -7188,7 +7554,7 @@
         <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -7196,13 +7562,16 @@
         <v>90026</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>427</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
       </c>
       <c r="M29" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N29" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O29">
         <v>170</v>
@@ -7211,7 +7580,7 @@
         <v>26</v>
       </c>
       <c r="R29" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -7219,13 +7588,19 @@
         <v>90027</v>
       </c>
       <c r="B30" t="s">
-        <v>415</v>
+        <v>428</v>
+      </c>
+      <c r="D30" t="s">
+        <v>429</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
       </c>
       <c r="M30" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N30" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O30">
         <v>170</v>
@@ -7234,7 +7609,7 @@
         <v>27</v>
       </c>
       <c r="R30" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -7242,13 +7617,16 @@
         <v>90028</v>
       </c>
       <c r="B31" t="s">
-        <v>416</v>
+        <v>430</v>
+      </c>
+      <c r="L31" t="s">
+        <v>218</v>
       </c>
       <c r="M31" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N31" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O31">
         <v>170</v>
@@ -7257,7 +7635,7 @@
         <v>28</v>
       </c>
       <c r="R31" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -7265,13 +7643,16 @@
         <v>90029</v>
       </c>
       <c r="B32" t="s">
-        <v>417</v>
+        <v>431</v>
+      </c>
+      <c r="L32" t="s">
+        <v>218</v>
       </c>
       <c r="M32" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N32" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O32">
         <v>170</v>
@@ -7280,7 +7661,7 @@
         <v>29</v>
       </c>
       <c r="R32" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -7288,13 +7669,19 @@
         <v>90030</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>432</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="L33" t="s">
+        <v>218</v>
       </c>
       <c r="M33" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N33" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O33">
         <v>170</v>
@@ -7303,7 +7690,7 @@
         <v>30</v>
       </c>
       <c r="R33" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -7311,13 +7698,16 @@
         <v>90031</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>434</v>
+      </c>
+      <c r="L34" t="s">
+        <v>218</v>
       </c>
       <c r="M34" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N34" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O34">
         <v>170</v>
@@ -7326,7 +7716,7 @@
         <v>31</v>
       </c>
       <c r="R34" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -7334,13 +7724,19 @@
         <v>90032</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>435</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="L35" t="s">
+        <v>218</v>
       </c>
       <c r="M35" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N35" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O35">
         <v>170</v>
@@ -7349,7 +7745,7 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -7357,13 +7753,19 @@
         <v>90033</v>
       </c>
       <c r="B36" t="s">
-        <v>421</v>
+        <v>437</v>
+      </c>
+      <c r="D36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>218</v>
       </c>
       <c r="M36" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N36" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O36">
         <v>170</v>
@@ -7372,7 +7774,7 @@
         <v>33</v>
       </c>
       <c r="R36" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -7380,13 +7782,16 @@
         <v>90034</v>
       </c>
       <c r="B37" t="s">
-        <v>422</v>
+        <v>438</v>
+      </c>
+      <c r="L37" t="s">
+        <v>218</v>
       </c>
       <c r="M37" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N37" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O37">
         <v>170</v>
@@ -7395,7 +7800,7 @@
         <v>34</v>
       </c>
       <c r="R37" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7403,13 +7808,16 @@
         <v>90035</v>
       </c>
       <c r="B38" t="s">
-        <v>423</v>
+        <v>439</v>
+      </c>
+      <c r="L38" t="s">
+        <v>218</v>
       </c>
       <c r="M38" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N38" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O38">
         <v>170</v>
@@ -7418,7 +7826,7 @@
         <v>35</v>
       </c>
       <c r="R38" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -7426,13 +7834,16 @@
         <v>90036</v>
       </c>
       <c r="B39" t="s">
-        <v>424</v>
+        <v>440</v>
+      </c>
+      <c r="L39" t="s">
+        <v>218</v>
       </c>
       <c r="M39" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N39" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O39">
         <v>170</v>
@@ -7441,7 +7852,7 @@
         <v>36</v>
       </c>
       <c r="R39" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -7449,13 +7860,16 @@
         <v>90037</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>441</v>
+      </c>
+      <c r="L40" t="s">
+        <v>218</v>
       </c>
       <c r="M40" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N40" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O40">
         <v>170</v>
@@ -7464,7 +7878,7 @@
         <v>37</v>
       </c>
       <c r="R40" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -7472,13 +7886,16 @@
         <v>90038</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>442</v>
+      </c>
+      <c r="L41" t="s">
+        <v>218</v>
       </c>
       <c r="M41" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N41" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O41">
         <v>170</v>
@@ -7487,7 +7904,7 @@
         <v>38</v>
       </c>
       <c r="R41" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -7495,14 +7912,17 @@
         <v>90039</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
-      </c>
-      <c r="I42" s="8"/>
+        <v>443</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="L42" t="s">
+        <v>218</v>
+      </c>
       <c r="M42" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N42" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O42">
         <v>170</v>
@@ -7511,7 +7931,7 @@
         <v>39</v>
       </c>
       <c r="R42" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -7519,13 +7939,16 @@
         <v>90040</v>
       </c>
       <c r="B43" t="s">
-        <v>428</v>
+        <v>444</v>
+      </c>
+      <c r="L43" t="s">
+        <v>218</v>
       </c>
       <c r="M43" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="O43">
         <v>170</v>
@@ -7534,29 +7957,29 @@
         <v>40</v>
       </c>
       <c r="R43" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="9:9">
-      <c r="I48" s="9"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="9:9">
-      <c r="I49" s="9"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="59" spans="9:9">
-      <c r="I59" s="9"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="9:9">
-      <c r="I60" s="9"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="9:9">
-      <c r="I61" s="9"/>
+      <c r="I61" s="12"/>
     </row>
     <row r="62" spans="9:9">
-      <c r="I62" s="9"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="88" spans="9:9">
-      <c r="I88" s="9"/>
+      <c r="I88" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="AVGCharacter" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="446">
   <si>
     <t>ID</t>
   </si>
@@ -616,7 +616,7 @@
     <t>涂凌_惊讶_上脸_循环_01|涂凌_惊讶_上脸_开始_01|涂凌_平静_上脸_开始_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01|涂凌_忧伤_上脸_开始_01|涂凌_忧伤_上脸_开始_01|涂凌_喘气_上脸_开始_01|涂凌_紧张_上脸_开始_01|涂凌_惊恐_上脸_循环_01|涂凌_惊恐_上脸_开始_01</t>
   </si>
   <si>
-    <t>涂凌_主界面_动作_循环_01</t>
+    <t>涂凌_主界面_动作_待机_01</t>
   </si>
   <si>
     <t>tel</t>
@@ -1261,7 +1261,7 @@
     <t>stsqiandaoguan</t>
   </si>
   <si>
-    <t>签到官</t>
+    <t>后勤部员工</t>
   </si>
   <si>
     <t>wuzhuren</t>
@@ -1664,6 +1664,9 @@
   </si>
   <si>
     <t>nfc_90026</t>
+  </si>
+  <si>
+    <t>流浪商贩</t>
   </si>
   <si>
     <t>nfc_90027</t>
@@ -1922,6 +1925,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1929,11 +1937,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2879,12 +2882,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6675,10 +6678,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7564,6 +7567,9 @@
       <c r="B29" t="s">
         <v>427</v>
       </c>
+      <c r="D29" t="s">
+        <v>428</v>
+      </c>
       <c r="L29" t="s">
         <v>218</v>
       </c>
@@ -7588,10 +7594,10 @@
         <v>90027</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L30" t="s">
         <v>218</v>
@@ -7617,7 +7623,7 @@
         <v>90028</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L31" t="s">
         <v>218</v>
@@ -7643,7 +7649,7 @@
         <v>90029</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L32" t="s">
         <v>218</v>
@@ -7669,10 +7675,10 @@
         <v>90030</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L33" t="s">
         <v>218</v>
@@ -7698,7 +7704,7 @@
         <v>90031</v>
       </c>
       <c r="B34" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L34" t="s">
         <v>218</v>
@@ -7724,10 +7730,10 @@
         <v>90032</v>
       </c>
       <c r="B35" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L35" t="s">
         <v>218</v>
@@ -7753,7 +7759,7 @@
         <v>90033</v>
       </c>
       <c r="B36" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D36" t="s">
         <v>303</v>
@@ -7782,7 +7788,7 @@
         <v>90034</v>
       </c>
       <c r="B37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L37" t="s">
         <v>218</v>
@@ -7808,7 +7814,7 @@
         <v>90035</v>
       </c>
       <c r="B38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L38" t="s">
         <v>218</v>
@@ -7834,7 +7840,7 @@
         <v>90036</v>
       </c>
       <c r="B39" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L39" t="s">
         <v>218</v>
@@ -7860,7 +7866,7 @@
         <v>90037</v>
       </c>
       <c r="B40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L40" t="s">
         <v>218</v>
@@ -7886,7 +7892,7 @@
         <v>90038</v>
       </c>
       <c r="B41" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L41" t="s">
         <v>218</v>
@@ -7912,7 +7918,7 @@
         <v>90039</v>
       </c>
       <c r="B42" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I42" s="11"/>
       <c r="L42" t="s">
@@ -7939,7 +7945,7 @@
         <v>90040</v>
       </c>
       <c r="B43" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L43" t="s">
         <v>218</v>

--- a/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="17445" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="AVGCharacter" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="446">
   <si>
     <t>ID</t>
   </si>
@@ -799,13 +799,13 @@
     <t>李加虎</t>
   </si>
   <si>
+    <t>李加虎_主界面_动作_循环_01</t>
+  </si>
+  <si>
     <t>lijiahu</t>
   </si>
   <si>
     <t>hero_lijiahu</t>
-  </si>
-  <si>
-    <t>李加虎_主界面_动作_循环_01</t>
   </si>
   <si>
     <t>chenbing</t>
@@ -1925,11 +1925,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1937,6 +1932,11 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2887,7 +2887,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3953,7 +3953,9 @@
       <c r="O30">
         <v>1.76</v>
       </c>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="31" ht="162" spans="1:18">
       <c r="A31" s="18">
@@ -3961,7 +3963,7 @@
         <v>1027</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="12">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3986,13 +3988,13 @@
         <v>71</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N31" s="12" t="s">
         <v>138</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4971,7 +4973,9 @@
       <c r="N61" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="R61" s="6"/>
+      <c r="R61" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="18">

--- a/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVG角色.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17445" windowHeight="9930"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="AVGCharacter" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="447">
   <si>
     <t>ID</t>
   </si>
@@ -616,7 +616,7 @@
     <t>涂凌_惊讶_上脸_循环_01|涂凌_惊讶_上脸_开始_01|涂凌_平静_上脸_开始_01|涂凌_思考_上脸_开始_01|涂凌_憋气_上脸_循环_01|涂凌_喘气_上脸_循环_01|涂凌_憋气_上脸_开始_01|涂凌_憋气_上脸_开始_02|涂凌_慌张_上脸_开始_01|涂凌_忧伤_上脸_开始_01|涂凌_忧伤_上脸_开始_01|涂凌_喘气_上脸_开始_01|涂凌_紧张_上脸_开始_01|涂凌_惊恐_上脸_循环_01|涂凌_惊恐_上脸_开始_01</t>
   </si>
   <si>
-    <t>涂凌_主界面_动作_待机_01</t>
+    <t>涂凌_主界面_动作_循环_01</t>
   </si>
   <si>
     <t>tel</t>
@@ -934,15 +934,18 @@
     <t>char_duheng</t>
   </si>
   <si>
+    <t>杜衡_平静_上脸_开始_01|杜衡_思考_上脸_开始_01|杜衡_愤怒2_上脸_开始_01|杜衡_平静_循环_开始_01|杜衡_思考_上脸_循环_01|杜衡_愤怒2_上脸_循环_01|杜衡_惊讶_上脸_开始_01|杜衡_惊讶_上脸_循环_01</t>
+  </si>
+  <si>
+    <t>杜衡_主界面_动作_循环_01</t>
+  </si>
+  <si>
+    <t>duheng_stranger</t>
+  </si>
+  <si>
     <t>杜衡_平静_上脸_开始_01|杜衡_思考_上脸_开始_01|杜衡_愤怒2_上脸_开始_01|杜衡_平静_循环_开始_01|杜衡_思考_上脸_循环_01|杜衡_愤怒2_上脸_循环_01</t>
   </si>
   <si>
-    <t>杜衡_主界面_动作_循环_01</t>
-  </si>
-  <si>
-    <t>duheng_stranger</t>
-  </si>
-  <si>
     <t>shark</t>
   </si>
   <si>
@@ -1561,7 +1564,7 @@
     <t>M_A_N_N</t>
   </si>
   <si>
-    <t>M_A_N_N_待机_动作_循环_01</t>
+    <t>M_A_N_N_主界面_动作_循环_01</t>
   </si>
   <si>
     <t>nfc_90002</t>
@@ -1570,7 +1573,7 @@
     <t>F_A_N_N</t>
   </si>
   <si>
-    <t>F_A_N_N_待机_动作_循环_03</t>
+    <t>F_A_N_N_主界面_动作_循环_01</t>
   </si>
   <si>
     <t>nfc_90003</t>
@@ -1925,6 +1928,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1932,11 +1940,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2883,11 +2886,11 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4482,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>67</v>
@@ -4504,7 +4507,7 @@
         <v>1044</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" s="12">
         <v>0</v>
@@ -4514,7 +4517,7 @@
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -4526,10 +4529,10 @@
         <v>71</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R48" s="6"/>
     </row>
@@ -4539,7 +4542,7 @@
         <v>1045</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" s="12">
         <v>0</v>
@@ -4549,7 +4552,7 @@
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -4561,10 +4564,10 @@
         <v>63</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R49" s="6"/>
     </row>
@@ -4574,13 +4577,13 @@
         <v>1046</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C50" s="12">
         <v>0</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12" t="s">
@@ -4615,7 +4618,7 @@
         <v>1047</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C51" s="12">
         <v>0</v>
@@ -4625,7 +4628,7 @@
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -4634,7 +4637,7 @@
         <v>71</v>
       </c>
       <c r="M51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N51" s="12" t="s">
         <v>173</v>
@@ -4647,7 +4650,7 @@
         <v>1048</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C52" s="12">
         <v>0</v>
@@ -4657,7 +4660,7 @@
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -4666,7 +4669,7 @@
         <v>71</v>
       </c>
       <c r="M52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N52" s="12" t="s">
         <v>173</v>
@@ -4679,7 +4682,7 @@
         <v>1049</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C53" s="12">
         <v>0</v>
@@ -4689,7 +4692,7 @@
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -4698,7 +4701,7 @@
         <v>71</v>
       </c>
       <c r="M53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N53" s="12" t="s">
         <v>173</v>
@@ -4711,7 +4714,7 @@
         <v>1050</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C54" s="12">
         <v>0</v>
@@ -4721,7 +4724,7 @@
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -4730,7 +4733,7 @@
         <v>71</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>173</v>
@@ -4743,7 +4746,7 @@
         <v>1051</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C55" s="12">
         <v>0</v>
@@ -4753,7 +4756,7 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I55">
         <v>4</v>
@@ -4762,7 +4765,7 @@
         <v>63</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N55" s="12" t="s">
         <v>176</v>
@@ -4775,7 +4778,7 @@
         <v>1052</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" s="12">
         <v>0</v>
@@ -4784,7 +4787,7 @@
         <v>176</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I56">
         <v>4</v>
@@ -4793,7 +4796,7 @@
         <v>63</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N56" s="12" t="s">
         <v>176</v>
@@ -4806,7 +4809,7 @@
         <v>1053</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C57" s="12">
         <v>0</v>
@@ -4815,7 +4818,7 @@
         <v>176</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -4824,7 +4827,7 @@
         <v>63</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N57" s="12" t="s">
         <v>176</v>
@@ -4837,7 +4840,7 @@
         <v>1054</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C58" s="12">
         <v>0</v>
@@ -4846,7 +4849,7 @@
         <v>176</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I58">
         <v>4</v>
@@ -4855,7 +4858,7 @@
         <v>63</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N58" s="12" t="s">
         <v>176</v>
@@ -4868,21 +4871,21 @@
         <v>1055</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C59" s="12">
         <v>0</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I59" s="12">
         <v>4</v>
@@ -4890,10 +4893,10 @@
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="M59" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R59" s="6"/>
     </row>
@@ -4903,17 +4906,17 @@
         <v>1056</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C60" s="12">
         <v>0</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -4923,16 +4926,16 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R60" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:18">
@@ -4941,7 +4944,7 @@
         <v>1057</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C61" s="12">
         <v>0</v>
@@ -4951,7 +4954,7 @@
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
@@ -4961,14 +4964,14 @@
         <v>4</v>
       </c>
       <c r="J61" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K61" s="12"/>
       <c r="L61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N61" s="12" t="s">
         <v>86</v>
@@ -4983,17 +4986,17 @@
         <v>1058</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C62" s="12">
         <v>0</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -5003,13 +5006,13 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R62" s="6"/>
     </row>
@@ -5019,28 +5022,28 @@
         <v>1059</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R63" s="6"/>
     </row>
@@ -5050,28 +5053,28 @@
         <v>1060</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R64" s="6"/>
     </row>
@@ -5081,19 +5084,19 @@
         <v>1061</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I65">
         <v>4</v>
@@ -5109,19 +5112,19 @@
         <v>1062</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -5137,19 +5140,19 @@
         <v>1063</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I67">
         <v>4</v>
@@ -5165,16 +5168,16 @@
         <v>1064</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I68">
         <v>2</v>
@@ -5183,10 +5186,10 @@
         <v>71</v>
       </c>
       <c r="M68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R68" s="6"/>
     </row>
@@ -5196,16 +5199,16 @@
         <v>1065</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -5214,10 +5217,10 @@
         <v>71</v>
       </c>
       <c r="M69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R69" s="6"/>
     </row>
@@ -5227,25 +5230,25 @@
         <v>1066</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I70">
         <v>2</v>
       </c>
       <c r="L70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R70" s="6"/>
     </row>
@@ -5255,16 +5258,16 @@
         <v>1067</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -5273,10 +5276,10 @@
         <v>71</v>
       </c>
       <c r="M71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R71" s="6"/>
     </row>
@@ -5286,19 +5289,19 @@
         <v>1068</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -5314,19 +5317,19 @@
         <v>1069</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -5342,16 +5345,16 @@
         <v>1070</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I74">
         <v>4</v>
@@ -5367,16 +5370,16 @@
         <v>1071</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I75">
         <v>4</v>
@@ -5385,10 +5388,10 @@
         <v>63</v>
       </c>
       <c r="M75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R75" s="6"/>
     </row>
@@ -5398,19 +5401,19 @@
         <v>1072</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H76" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -5420,13 +5423,13 @@
         <v>67</v>
       </c>
       <c r="M76" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5435,19 +5438,19 @@
         <v>1073</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F77" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -5456,13 +5459,13 @@
         <v>71</v>
       </c>
       <c r="M77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5471,16 +5474,16 @@
         <v>1074</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -5489,7 +5492,7 @@
         <v>71</v>
       </c>
       <c r="N78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R78" s="6"/>
     </row>
@@ -5499,7 +5502,7 @@
         <v>1075</v>
       </c>
       <c r="B79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5508,19 +5511,19 @@
         <v>179</v>
       </c>
       <c r="F79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R79" s="6"/>
     </row>
@@ -5530,28 +5533,28 @@
         <v>1076</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="L80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R80" s="6"/>
     </row>
@@ -5561,28 +5564,28 @@
         <v>1077</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R81" s="6"/>
     </row>
@@ -5592,28 +5595,28 @@
         <v>1078</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I82">
         <v>4</v>
       </c>
       <c r="L82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R82" s="6"/>
     </row>
@@ -5623,25 +5626,25 @@
         <v>1079</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L83" s="11" t="s">
         <v>71</v>
       </c>
       <c r="M83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R83" s="6"/>
     </row>
@@ -5651,25 +5654,25 @@
         <v>1080</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N84" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R84" s="6"/>
     </row>
@@ -5679,25 +5682,25 @@
         <v>1081</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N85" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R85" s="6"/>
     </row>
@@ -5707,13 +5710,13 @@
         <v>1082</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" s="12">
         <v>0</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="20" t="s">
@@ -5721,13 +5724,13 @@
       </c>
       <c r="J86" s="21"/>
       <c r="L86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M86" s="12" t="s">
         <v>110</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R86" s="6"/>
     </row>
@@ -5737,13 +5740,13 @@
         <v>1083</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C87" s="12">
         <v>0</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="20" t="s">
@@ -5751,13 +5754,13 @@
       </c>
       <c r="J87" s="21"/>
       <c r="L87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M87" s="12" t="s">
         <v>110</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R87" s="6"/>
     </row>
@@ -5767,17 +5770,17 @@
         <v>1084</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C88" s="12">
         <v>0</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -5785,13 +5788,13 @@
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R88" s="6"/>
     </row>
@@ -5801,25 +5804,25 @@
         <v>1085</v>
       </c>
       <c r="B89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R89" s="6"/>
     </row>
@@ -5829,25 +5832,25 @@
         <v>1086</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R90" s="6"/>
     </row>
@@ -5857,16 +5860,16 @@
         <v>1087</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F91" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I91">
         <v>2</v>
@@ -5888,17 +5891,17 @@
         <v>1088</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C92" s="12">
         <v>0</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -5913,17 +5916,17 @@
         <v>1089</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C93" s="12">
         <v>0</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -5938,19 +5941,19 @@
         <v>1090</v>
       </c>
       <c r="B94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5959,19 +5962,19 @@
         <v>1091</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F95" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5980,16 +5983,16 @@
         <v>1092</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -5999,10 +6002,10 @@
         <v>67</v>
       </c>
       <c r="M96" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6011,16 +6014,16 @@
         <v>1093</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
+        <v>326</v>
+      </c>
+      <c r="F97" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:14">
@@ -6029,17 +6032,17 @@
         <v>1094</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C98" s="12">
         <v>0</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -6049,13 +6052,13 @@
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
       <c r="L98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:12">
@@ -6064,19 +6067,19 @@
         <v>1095</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:12">
@@ -6085,25 +6088,25 @@
         <v>1096</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F100" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H100" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="L100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1" spans="1:18">
@@ -6112,13 +6115,13 @@
         <v>1097</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C101" s="12">
         <v>0</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -6128,13 +6131,13 @@
       <c r="J101" s="12"/>
       <c r="K101" s="12"/>
       <c r="L101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O101">
         <v>170</v>
@@ -6143,7 +6146,7 @@
         <v>39</v>
       </c>
       <c r="R101" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6152,13 +6155,13 @@
         <v>1098</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C102" s="12">
         <v>0</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -6168,13 +6171,13 @@
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O102">
         <v>160</v>
@@ -6183,7 +6186,7 @@
         <v>20</v>
       </c>
       <c r="R102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6192,22 +6195,22 @@
         <v>1099</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L103" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O103">
         <v>170</v>
@@ -6216,7 +6219,7 @@
         <v>40</v>
       </c>
       <c r="R103" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" customFormat="1" spans="1:18">
@@ -6225,22 +6228,22 @@
         <v>1100</v>
       </c>
       <c r="B104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C104" s="12">
         <v>0</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L104" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N104" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O104">
         <v>170</v>
@@ -6249,7 +6252,7 @@
         <v>40</v>
       </c>
       <c r="R104" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:18">
@@ -6258,22 +6261,22 @@
         <v>1101</v>
       </c>
       <c r="B105" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C105" s="12">
         <v>0</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O105">
         <v>170</v>
@@ -6282,7 +6285,7 @@
         <v>40</v>
       </c>
       <c r="R105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:18">
@@ -6291,22 +6294,22 @@
         <v>1102</v>
       </c>
       <c r="B106" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M106" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O106">
         <v>170</v>
@@ -6315,7 +6318,7 @@
         <v>40</v>
       </c>
       <c r="R106" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:18">
@@ -6324,22 +6327,22 @@
         <v>1103</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C107" s="12">
         <v>0</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O107">
         <v>170</v>
@@ -6348,7 +6351,7 @@
         <v>40</v>
       </c>
       <c r="R107" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6357,22 +6360,22 @@
         <v>1104</v>
       </c>
       <c r="B108" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C108" s="12">
         <v>0</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O108">
         <v>160</v>
@@ -6381,7 +6384,7 @@
         <v>20</v>
       </c>
       <c r="R108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6390,16 +6393,16 @@
         <v>1105</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F109" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6408,16 +6411,16 @@
         <v>1106</v>
       </c>
       <c r="B110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F110" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -6450,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6464,13 +6467,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6495,10 +6498,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6509,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6523,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6537,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6551,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6565,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6579,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6593,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6607,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6621,10 +6624,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6635,10 +6638,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6649,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6663,10 +6666,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6682,10 +6685,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6879,17 +6882,17 @@
         <v>90001</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I4" s="10"/>
       <c r="L4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O4">
         <v>170</v>
@@ -6898,7 +6901,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -6906,20 +6909,20 @@
         <v>90002</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I5" s="10"/>
       <c r="L5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O5">
         <v>160</v>
@@ -6928,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -6936,22 +6939,22 @@
         <v>90003</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O6">
         <v>160</v>
@@ -6960,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6968,16 +6971,16 @@
         <v>90004</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O7">
         <v>160</v>
@@ -6986,7 +6989,7 @@
         <v>4</v>
       </c>
       <c r="R7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -6994,16 +6997,16 @@
         <v>90005</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O8">
         <v>160</v>
@@ -7012,7 +7015,7 @@
         <v>5</v>
       </c>
       <c r="R8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7020,16 +7023,16 @@
         <v>90006</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O9">
         <v>160</v>
@@ -7038,7 +7041,7 @@
         <v>6</v>
       </c>
       <c r="R9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7046,19 +7049,19 @@
         <v>90007</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O10">
         <v>160</v>
@@ -7067,7 +7070,7 @@
         <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7075,16 +7078,16 @@
         <v>90008</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O11">
         <v>160</v>
@@ -7093,7 +7096,7 @@
         <v>8</v>
       </c>
       <c r="R11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7101,16 +7104,16 @@
         <v>90009</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O12">
         <v>160</v>
@@ -7119,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="R12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -7127,16 +7130,16 @@
         <v>90010</v>
       </c>
       <c r="B13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O13">
         <v>160</v>
@@ -7145,7 +7148,7 @@
         <v>10</v>
       </c>
       <c r="R13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -7153,20 +7156,20 @@
         <v>90011</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I14" s="11"/>
       <c r="L14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O14">
         <v>160</v>
@@ -7175,7 +7178,7 @@
         <v>11</v>
       </c>
       <c r="R14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -7183,16 +7186,16 @@
         <v>90012</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O15">
         <v>160</v>
@@ -7201,7 +7204,7 @@
         <v>12</v>
       </c>
       <c r="R15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -7209,16 +7212,16 @@
         <v>90013</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O16">
         <v>160</v>
@@ -7227,7 +7230,7 @@
         <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -7235,20 +7238,20 @@
         <v>90014</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I17" s="11"/>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O17">
         <v>160</v>
@@ -7257,7 +7260,7 @@
         <v>14</v>
       </c>
       <c r="R17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -7265,16 +7268,16 @@
         <v>90015</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O18">
         <v>160</v>
@@ -7283,7 +7286,7 @@
         <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -7291,17 +7294,17 @@
         <v>90016</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I19" s="11"/>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O19">
         <v>160</v>
@@ -7310,7 +7313,7 @@
         <v>16</v>
       </c>
       <c r="R19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -7318,16 +7321,16 @@
         <v>90017</v>
       </c>
       <c r="B20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O20">
         <v>160</v>
@@ -7336,7 +7339,7 @@
         <v>17</v>
       </c>
       <c r="R20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -7344,16 +7347,16 @@
         <v>90018</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O21">
         <v>160</v>
@@ -7362,7 +7365,7 @@
         <v>18</v>
       </c>
       <c r="R21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -7370,17 +7373,17 @@
         <v>90019</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I22" s="11"/>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O22">
         <v>160</v>
@@ -7389,7 +7392,7 @@
         <v>19</v>
       </c>
       <c r="R22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -7397,16 +7400,16 @@
         <v>90020</v>
       </c>
       <c r="B23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O23">
         <v>160</v>
@@ -7415,7 +7418,7 @@
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -7423,20 +7426,20 @@
         <v>90021</v>
       </c>
       <c r="B24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I24" s="11"/>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O24">
         <v>160</v>
@@ -7445,7 +7448,7 @@
         <v>21</v>
       </c>
       <c r="R24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -7453,19 +7456,19 @@
         <v>90022</v>
       </c>
       <c r="B25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O25">
         <v>170</v>
@@ -7474,7 +7477,7 @@
         <v>22</v>
       </c>
       <c r="R25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -7482,19 +7485,19 @@
         <v>90023</v>
       </c>
       <c r="B26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O26">
         <v>170</v>
@@ -7503,7 +7506,7 @@
         <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -7511,19 +7514,19 @@
         <v>90024</v>
       </c>
       <c r="B27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N27" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O27">
         <v>170</v>
@@ -7532,7 +7535,7 @@
         <v>24</v>
       </c>
       <c r="R27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -7540,19 +7543,19 @@
         <v>90025</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O28">
         <v>170</v>
@@ -7561,7 +7564,7 @@
         <v>25</v>
       </c>
       <c r="R28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -7569,19 +7572,19 @@
         <v>90026</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O29">
         <v>170</v>
@@ -7590,7 +7593,7 @@
         <v>26</v>
       </c>
       <c r="R29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -7598,19 +7601,19 @@
         <v>90027</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O30">
         <v>170</v>
@@ -7619,7 +7622,7 @@
         <v>27</v>
       </c>
       <c r="R30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -7627,16 +7630,16 @@
         <v>90028</v>
       </c>
       <c r="B31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N31" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O31">
         <v>170</v>
@@ -7645,7 +7648,7 @@
         <v>28</v>
       </c>
       <c r="R31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -7653,16 +7656,16 @@
         <v>90029</v>
       </c>
       <c r="B32" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N32" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O32">
         <v>170</v>
@@ -7671,7 +7674,7 @@
         <v>29</v>
       </c>
       <c r="R32" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -7679,19 +7682,19 @@
         <v>90030</v>
       </c>
       <c r="B33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O33">
         <v>170</v>
@@ -7700,7 +7703,7 @@
         <v>30</v>
       </c>
       <c r="R33" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -7708,16 +7711,16 @@
         <v>90031</v>
       </c>
       <c r="B34" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N34" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O34">
         <v>170</v>
@@ -7726,7 +7729,7 @@
         <v>31</v>
       </c>
       <c r="R34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -7734,19 +7737,19 @@
         <v>90032</v>
       </c>
       <c r="B35" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O35">
         <v>170</v>
@@ -7755,7 +7758,7 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -7763,19 +7766,19 @@
         <v>90033</v>
       </c>
       <c r="B36" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O36">
         <v>170</v>
@@ -7784,7 +7787,7 @@
         <v>33</v>
       </c>
       <c r="R36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -7792,16 +7795,16 @@
         <v>90034</v>
       </c>
       <c r="B37" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O37">
         <v>170</v>
@@ -7810,7 +7813,7 @@
         <v>34</v>
       </c>
       <c r="R37" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7818,16 +7821,16 @@
         <v>90035</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O38">
         <v>170</v>
@@ -7836,7 +7839,7 @@
         <v>35</v>
       </c>
       <c r="R38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -7844,16 +7847,16 @@
         <v>90036</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O39">
         <v>170</v>
@@ -7862,7 +7865,7 @@
         <v>36</v>
       </c>
       <c r="R39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -7870,16 +7873,16 @@
         <v>90037</v>
       </c>
       <c r="B40" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O40">
         <v>170</v>
@@ -7888,7 +7891,7 @@
         <v>37</v>
       </c>
       <c r="R40" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -7896,16 +7899,16 @@
         <v>90038</v>
       </c>
       <c r="B41" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N41" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O41">
         <v>170</v>
@@ -7914,7 +7917,7 @@
         <v>38</v>
       </c>
       <c r="R41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -7922,17 +7925,17 @@
         <v>90039</v>
       </c>
       <c r="B42" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I42" s="11"/>
       <c r="L42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N42" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O42">
         <v>170</v>
@@ -7941,7 +7944,7 @@
         <v>39</v>
       </c>
       <c r="R42" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -7949,16 +7952,16 @@
         <v>90040</v>
       </c>
       <c r="B43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O43">
         <v>170</v>
@@ -7967,7 +7970,7 @@
         <v>40</v>
       </c>
       <c r="R43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="9:9">
